--- a/playwith/quotesdf.xlsx
+++ b/playwith/quotesdf.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1561037400</v>
+        <v>1562160600</v>
       </c>
       <c r="C2">
-        <v>125.6900024414062</v>
+        <v>125.2099990844727</v>
       </c>
       <c r="D2">
-        <v>126.4000015258789</v>
+        <v>126.0500030517578</v>
       </c>
       <c r="E2">
-        <v>124.4700012207031</v>
+        <v>124.9400024414062</v>
       </c>
       <c r="F2">
-        <v>124.9199981689453</v>
+        <v>125.8600006103516</v>
       </c>
       <c r="G2">
-        <v>3303200</v>
+        <v>3714300</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1561123800</v>
+        <v>1562333400</v>
       </c>
       <c r="C3">
-        <v>125.1999969482422</v>
+        <v>126.129997253418</v>
       </c>
       <c r="D3">
-        <v>126.3099975585938</v>
+        <v>126.1900024414062</v>
       </c>
       <c r="E3">
-        <v>124.5599975585938</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="F3">
-        <v>124.7300033569336</v>
+        <v>125.4000015258789</v>
       </c>
       <c r="G3">
-        <v>5703800</v>
+        <v>3731500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -466,22 +466,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1561383000</v>
+        <v>1562592600</v>
       </c>
       <c r="C4">
-        <v>124.9800033569336</v>
+        <v>124.9899978637695</v>
       </c>
       <c r="D4">
-        <v>125.4199981689453</v>
+        <v>125.2300033569336</v>
       </c>
       <c r="E4">
-        <v>124.0100021362305</v>
+        <v>124.6399993896484</v>
       </c>
       <c r="F4">
-        <v>124.1399993896484</v>
+        <v>124.8499984741211</v>
       </c>
       <c r="G4">
-        <v>2680900</v>
+        <v>3332000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,22 +489,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1561469400</v>
+        <v>1562679000</v>
       </c>
       <c r="C5">
         <v>124.2699966430664</v>
       </c>
       <c r="D5">
-        <v>124.5699996948242</v>
+        <v>126.0400009155273</v>
       </c>
       <c r="E5">
-        <v>123.0400009155273</v>
+        <v>124.1800003051758</v>
       </c>
       <c r="F5">
-        <v>123.1600036621094</v>
+        <v>125.9000015258789</v>
       </c>
       <c r="G5">
-        <v>2387800</v>
+        <v>2237100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1561555800</v>
+        <v>1562765400</v>
       </c>
       <c r="C6">
-        <v>123.1800003051758</v>
+        <v>126.6999969482422</v>
       </c>
       <c r="D6">
-        <v>124</v>
+        <v>128.4199981689453</v>
       </c>
       <c r="E6">
-        <v>123.0299987792969</v>
+        <v>126.6999969482422</v>
       </c>
       <c r="F6">
-        <v>123.5899963378906</v>
+        <v>126.8899993896484</v>
       </c>
       <c r="G6">
-        <v>1902500</v>
+        <v>2733800</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -535,22 +535,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1561642200</v>
+        <v>1562851800</v>
       </c>
       <c r="C7">
-        <v>123.6900024414062</v>
+        <v>126.9800033569336</v>
       </c>
       <c r="D7">
-        <v>124.4100036621094</v>
+        <v>127.6900024414062</v>
       </c>
       <c r="E7">
-        <v>123.5599975585938</v>
+        <v>126.4400024414062</v>
       </c>
       <c r="F7">
-        <v>123.9400024414062</v>
+        <v>127.2799987792969</v>
       </c>
       <c r="G7">
-        <v>1504300</v>
+        <v>2928100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -558,22 +558,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1561728600</v>
+        <v>1562938200</v>
       </c>
       <c r="C8">
-        <v>124.2900009155273</v>
+        <v>127.5500030517578</v>
       </c>
       <c r="D8">
-        <v>124.5500030517578</v>
+        <v>128</v>
       </c>
       <c r="E8">
-        <v>123.1999969482422</v>
+        <v>126.870002746582</v>
       </c>
       <c r="F8">
-        <v>123.4400024414062</v>
+        <v>127.9599990844727</v>
       </c>
       <c r="G8">
-        <v>4338900</v>
+        <v>1639400</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -581,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1561987800</v>
+        <v>1563197400</v>
       </c>
       <c r="C9">
-        <v>125.3000030517578</v>
+        <v>128.25</v>
       </c>
       <c r="D9">
-        <v>126.4000015258789</v>
+        <v>128.6799926757812</v>
       </c>
       <c r="E9">
-        <v>124.5500030517578</v>
+        <v>127.7600021362305</v>
       </c>
       <c r="F9">
-        <v>124.9199981689453</v>
+        <v>128.5700073242188</v>
       </c>
       <c r="G9">
-        <v>4023500</v>
+        <v>2355700</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -604,22 +604,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1562074200</v>
+        <v>1563283800</v>
       </c>
       <c r="C10">
-        <v>124.7799987792969</v>
+        <v>129.2200012207031</v>
       </c>
       <c r="D10">
-        <v>125.3300018310547</v>
+        <v>129.3399963378906</v>
       </c>
       <c r="E10">
-        <v>124.5999984741211</v>
+        <v>127.8000030517578</v>
       </c>
       <c r="F10">
-        <v>125.0999984741211</v>
+        <v>128.0599975585938</v>
       </c>
       <c r="G10">
-        <v>4076100</v>
+        <v>2734000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -627,22 +627,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1562160600</v>
+        <v>1563370200</v>
       </c>
       <c r="C11">
-        <v>125.2099990844727</v>
+        <v>128.0200042724609</v>
       </c>
       <c r="D11">
-        <v>126.0500030517578</v>
+        <v>128.6399993896484</v>
       </c>
       <c r="E11">
-        <v>124.9400024414062</v>
+        <v>127.0100021362305</v>
       </c>
       <c r="F11">
-        <v>125.8600006103516</v>
+        <v>127.0800018310547</v>
       </c>
       <c r="G11">
-        <v>3714300</v>
+        <v>2248900</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -650,22 +650,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1562333400</v>
+        <v>1563456600</v>
       </c>
       <c r="C12">
-        <v>126.129997253418</v>
+        <v>126.6900024414062</v>
       </c>
       <c r="D12">
-        <v>126.1900024414062</v>
+        <v>129.0899963378906</v>
       </c>
       <c r="E12">
-        <v>124.3099975585938</v>
+        <v>126.6600036621094</v>
       </c>
       <c r="F12">
-        <v>125.4000015258789</v>
+        <v>128.3999938964844</v>
       </c>
       <c r="G12">
-        <v>3731500</v>
+        <v>3528400</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -673,22 +673,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1562592600</v>
+        <v>1563543000</v>
       </c>
       <c r="C13">
-        <v>124.9899978637695</v>
+        <v>126.8000030517578</v>
       </c>
       <c r="D13">
-        <v>125.2300033569336</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>124.6399993896484</v>
+        <v>123.8000030517578</v>
       </c>
       <c r="F13">
-        <v>124.8499984741211</v>
+        <v>124.8199996948242</v>
       </c>
       <c r="G13">
-        <v>3332000</v>
+        <v>7819000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -696,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1562679000</v>
+        <v>1563802200</v>
       </c>
       <c r="C14">
-        <v>124.2699966430664</v>
+        <v>124.75</v>
       </c>
       <c r="D14">
-        <v>126.0400009155273</v>
+        <v>126.0100021362305</v>
       </c>
       <c r="E14">
-        <v>124.1800003051758</v>
+        <v>124.6999969482422</v>
       </c>
       <c r="F14">
-        <v>125.9000015258789</v>
+        <v>126</v>
       </c>
       <c r="G14">
-        <v>2237100</v>
+        <v>4839700</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -719,22 +719,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1562765400</v>
+        <v>1563888600</v>
       </c>
       <c r="C15">
-        <v>126.6999969482422</v>
+        <v>126.379997253418</v>
       </c>
       <c r="D15">
-        <v>128.4199981689453</v>
+        <v>128.9799957275391</v>
       </c>
       <c r="E15">
-        <v>126.6999969482422</v>
+        <v>126.3600006103516</v>
       </c>
       <c r="F15">
-        <v>126.8899993896484</v>
+        <v>128.1999969482422</v>
       </c>
       <c r="G15">
-        <v>2733800</v>
+        <v>4055100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -742,22 +742,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1562851800</v>
+        <v>1563975000</v>
       </c>
       <c r="C16">
-        <v>126.9800033569336</v>
+        <v>127.7099990844727</v>
       </c>
       <c r="D16">
-        <v>127.6900024414062</v>
+        <v>128.2200012207031</v>
       </c>
       <c r="E16">
-        <v>126.4400024414062</v>
+        <v>126.7900009155273</v>
       </c>
       <c r="F16">
-        <v>127.2799987792969</v>
+        <v>127.9499969482422</v>
       </c>
       <c r="G16">
-        <v>2928100</v>
+        <v>3628300</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -765,22 +765,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1562938200</v>
+        <v>1564061400</v>
       </c>
       <c r="C17">
-        <v>127.5500030517578</v>
+        <v>127.8099975585938</v>
       </c>
       <c r="D17">
-        <v>128</v>
+        <v>128.1900024414062</v>
       </c>
       <c r="E17">
-        <v>126.870002746582</v>
+        <v>126.5</v>
       </c>
       <c r="F17">
-        <v>127.9599990844727</v>
+        <v>127.1500015258789</v>
       </c>
       <c r="G17">
-        <v>1639400</v>
+        <v>2663500</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -788,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1563197400</v>
+        <v>1564147800</v>
       </c>
       <c r="C18">
-        <v>128.25</v>
+        <v>127.0899963378906</v>
       </c>
       <c r="D18">
-        <v>128.6799926757812</v>
+        <v>127.5599975585938</v>
       </c>
       <c r="E18">
-        <v>127.7600021362305</v>
+        <v>126.3000030517578</v>
       </c>
       <c r="F18">
-        <v>128.5700073242188</v>
+        <v>126.7799987792969</v>
       </c>
       <c r="G18">
-        <v>2355700</v>
+        <v>4236200</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -811,22 +811,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1563283800</v>
+        <v>1564407000</v>
       </c>
       <c r="C19">
-        <v>129.2200012207031</v>
+        <v>126.9100036621094</v>
       </c>
       <c r="D19">
-        <v>129.3399963378906</v>
+        <v>127.4599990844727</v>
       </c>
       <c r="E19">
-        <v>127.8000030517578</v>
+        <v>126.5400009155273</v>
       </c>
       <c r="F19">
-        <v>128.0599975585938</v>
+        <v>127.1900024414062</v>
       </c>
       <c r="G19">
-        <v>2734000</v>
+        <v>1829500</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -834,22 +834,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1563370200</v>
+        <v>1564493400</v>
       </c>
       <c r="C20">
-        <v>128.0200042724609</v>
+        <v>126.5699996948242</v>
       </c>
       <c r="D20">
-        <v>128.6399993896484</v>
+        <v>126.9100036621094</v>
       </c>
       <c r="E20">
-        <v>127.0100021362305</v>
+        <v>126.3000030517578</v>
       </c>
       <c r="F20">
-        <v>127.0800018310547</v>
+        <v>126.4700012207031</v>
       </c>
       <c r="G20">
-        <v>2248900</v>
+        <v>1575400</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -857,22 +857,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1563456600</v>
+        <v>1564579800</v>
       </c>
       <c r="C21">
-        <v>126.6900024414062</v>
+        <v>126.5299987792969</v>
       </c>
       <c r="D21">
-        <v>129.0899963378906</v>
+        <v>126.5899963378906</v>
       </c>
       <c r="E21">
-        <v>126.6600036621094</v>
+        <v>123.620002746582</v>
       </c>
       <c r="F21">
-        <v>128.3999938964844</v>
+        <v>124.370002746582</v>
       </c>
       <c r="G21">
-        <v>3528400</v>
+        <v>3221000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -880,22 +880,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1563543000</v>
+        <v>1564666200</v>
       </c>
       <c r="C22">
-        <v>126.8000030517578</v>
+        <v>123.7699966430664</v>
       </c>
       <c r="D22">
-        <v>128</v>
+        <v>126.129997253418</v>
       </c>
       <c r="E22">
-        <v>123.8000030517578</v>
+        <v>123.5199966430664</v>
       </c>
       <c r="F22">
-        <v>124.8199996948242</v>
+        <v>124.0899963378906</v>
       </c>
       <c r="G22">
-        <v>7819000</v>
+        <v>4489800</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1563802200</v>
+        <v>1564752600</v>
       </c>
       <c r="C23">
-        <v>124.75</v>
+        <v>123.9199981689453</v>
       </c>
       <c r="D23">
-        <v>126.0100021362305</v>
+        <v>124.9100036621094</v>
       </c>
       <c r="E23">
-        <v>124.6999969482422</v>
+        <v>123.0800018310547</v>
       </c>
       <c r="F23">
-        <v>126</v>
+        <v>124.3099975585938</v>
       </c>
       <c r="G23">
-        <v>4839700</v>
+        <v>3268800</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -926,22 +926,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1563888600</v>
+        <v>1565011800</v>
       </c>
       <c r="C24">
-        <v>126.379997253418</v>
+        <v>122.4599990844727</v>
       </c>
       <c r="D24">
-        <v>128.9799957275391</v>
+        <v>123.0800018310547</v>
       </c>
       <c r="E24">
-        <v>126.3600006103516</v>
+        <v>120.1600036621094</v>
       </c>
       <c r="F24">
-        <v>128.1999969482422</v>
+        <v>120.7200012207031</v>
       </c>
       <c r="G24">
-        <v>4055100</v>
+        <v>5876200</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -949,22 +949,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1563975000</v>
+        <v>1565098200</v>
       </c>
       <c r="C25">
-        <v>127.7099990844727</v>
+        <v>121.0599975585938</v>
       </c>
       <c r="D25">
-        <v>128.2200012207031</v>
+        <v>122.8499984741211</v>
       </c>
       <c r="E25">
-        <v>126.7900009155273</v>
+        <v>120.870002746582</v>
       </c>
       <c r="F25">
-        <v>127.9499969482422</v>
+        <v>122.5500030517578</v>
       </c>
       <c r="G25">
-        <v>3628300</v>
+        <v>3497000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -972,22 +972,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1564061400</v>
+        <v>1565184600</v>
       </c>
       <c r="C26">
-        <v>127.8099975585938</v>
+        <v>120.9199981689453</v>
       </c>
       <c r="D26">
-        <v>128.1900024414062</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="E26">
-        <v>126.5</v>
+        <v>120.2200012207031</v>
       </c>
       <c r="F26">
-        <v>127.1500015258789</v>
+        <v>123.5400009155273</v>
       </c>
       <c r="G26">
-        <v>2663500</v>
+        <v>3170800</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -995,22 +995,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1564147800</v>
+        <v>1565271000</v>
       </c>
       <c r="C27">
-        <v>127.0899963378906</v>
+        <v>123.8499984741211</v>
       </c>
       <c r="D27">
-        <v>127.5599975585938</v>
+        <v>125.6999969482422</v>
       </c>
       <c r="E27">
-        <v>126.3000030517578</v>
+        <v>123.6999969482422</v>
       </c>
       <c r="F27">
-        <v>126.7799987792969</v>
+        <v>125.2900009155273</v>
       </c>
       <c r="G27">
-        <v>4236200</v>
+        <v>2976100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1018,22 +1018,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1564407000</v>
+        <v>1565357400</v>
       </c>
       <c r="C28">
-        <v>126.9100036621094</v>
+        <v>125.5800018310547</v>
       </c>
       <c r="D28">
-        <v>127.4599990844727</v>
+        <v>126.7399978637695</v>
       </c>
       <c r="E28">
-        <v>126.5400009155273</v>
+        <v>124.7200012207031</v>
       </c>
       <c r="F28">
-        <v>127.1900024414062</v>
+        <v>126.1699981689453</v>
       </c>
       <c r="G28">
-        <v>1829500</v>
+        <v>2138300</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1041,22 +1041,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1564493400</v>
+        <v>1565616600</v>
       </c>
       <c r="C29">
-        <v>126.5699996948242</v>
+        <v>124.9899978637695</v>
       </c>
       <c r="D29">
-        <v>126.9100036621094</v>
+        <v>125.7099990844727</v>
       </c>
       <c r="E29">
-        <v>126.3000030517578</v>
+        <v>123.8000030517578</v>
       </c>
       <c r="F29">
-        <v>126.4700012207031</v>
+        <v>123.9499969482422</v>
       </c>
       <c r="G29">
-        <v>1575400</v>
+        <v>2638800</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1064,22 +1064,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1564579800</v>
+        <v>1565703000</v>
       </c>
       <c r="C30">
-        <v>126.5299987792969</v>
+        <v>123.8600006103516</v>
       </c>
       <c r="D30">
-        <v>126.5899963378906</v>
+        <v>126.5</v>
       </c>
       <c r="E30">
-        <v>123.620002746582</v>
+        <v>122.5100021362305</v>
       </c>
       <c r="F30">
-        <v>124.370002746582</v>
+        <v>126.3199996948242</v>
       </c>
       <c r="G30">
-        <v>3221000</v>
+        <v>3175700</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1087,22 +1087,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1564666200</v>
+        <v>1565789400</v>
       </c>
       <c r="C31">
-        <v>123.7699966430664</v>
+        <v>124.3499984741211</v>
       </c>
       <c r="D31">
-        <v>126.129997253418</v>
+        <v>125.3300018310547</v>
       </c>
       <c r="E31">
-        <v>123.5199966430664</v>
+        <v>122.129997253418</v>
       </c>
       <c r="F31">
-        <v>124.0899963378906</v>
+        <v>122.6500015258789</v>
       </c>
       <c r="G31">
-        <v>4489800</v>
+        <v>5626300</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1110,22 +1110,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1564752600</v>
+        <v>1565875800</v>
       </c>
       <c r="C32">
-        <v>123.9199981689453</v>
+        <v>122.6500015258789</v>
       </c>
       <c r="D32">
-        <v>124.9100036621094</v>
+        <v>123</v>
       </c>
       <c r="E32">
-        <v>123.0800018310547</v>
+        <v>121.1399993896484</v>
       </c>
       <c r="F32">
-        <v>124.3099975585938</v>
+        <v>122.379997253418</v>
       </c>
       <c r="G32">
-        <v>3268800</v>
+        <v>3031700</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1133,22 +1133,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1565011800</v>
+        <v>1565962200</v>
       </c>
       <c r="C33">
-        <v>122.4599990844727</v>
+        <v>123.5</v>
       </c>
       <c r="D33">
-        <v>123.0800018310547</v>
+        <v>124.75</v>
       </c>
       <c r="E33">
-        <v>120.1600036621094</v>
+        <v>122.6900024414062</v>
       </c>
       <c r="F33">
-        <v>120.7200012207031</v>
+        <v>124.629997253418</v>
       </c>
       <c r="G33">
-        <v>5876200</v>
+        <v>2343400</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1156,22 +1156,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1565098200</v>
+        <v>1566221400</v>
       </c>
       <c r="C34">
-        <v>121.0599975585938</v>
+        <v>126.0999984741211</v>
       </c>
       <c r="D34">
-        <v>122.8499984741211</v>
+        <v>126.1500015258789</v>
       </c>
       <c r="E34">
-        <v>120.870002746582</v>
+        <v>124.3399963378906</v>
       </c>
       <c r="F34">
-        <v>122.5500030517578</v>
+        <v>124.4000015258789</v>
       </c>
       <c r="G34">
-        <v>3497000</v>
+        <v>3286700</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1179,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1565184600</v>
+        <v>1566307800</v>
       </c>
       <c r="C35">
-        <v>120.9199981689453</v>
+        <v>123.629997253418</v>
       </c>
       <c r="D35">
-        <v>123.8499984741211</v>
+        <v>123.7799987792969</v>
       </c>
       <c r="E35">
-        <v>120.2200012207031</v>
+        <v>121.3399963378906</v>
       </c>
       <c r="F35">
-        <v>123.5400009155273</v>
+        <v>121.4199981689453</v>
       </c>
       <c r="G35">
-        <v>3170800</v>
+        <v>3641600</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1202,22 +1202,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1565271000</v>
+        <v>1566394200</v>
       </c>
       <c r="C36">
-        <v>123.8499984741211</v>
+        <v>122.5</v>
       </c>
       <c r="D36">
-        <v>125.6999969482422</v>
+        <v>123.0599975585938</v>
       </c>
       <c r="E36">
-        <v>123.6999969482422</v>
+        <v>121.9899978637695</v>
       </c>
       <c r="F36">
-        <v>125.2900009155273</v>
+        <v>122.5</v>
       </c>
       <c r="G36">
-        <v>2976100</v>
+        <v>2948300</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1225,22 +1225,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1565357400</v>
+        <v>1566480600</v>
       </c>
       <c r="C37">
-        <v>125.5800018310547</v>
+        <v>123.3099975585938</v>
       </c>
       <c r="D37">
-        <v>126.7399978637695</v>
+        <v>123.7099990844727</v>
       </c>
       <c r="E37">
-        <v>124.7200012207031</v>
+        <v>121.7699966430664</v>
       </c>
       <c r="F37">
-        <v>126.1699981689453</v>
+        <v>122.2699966430664</v>
       </c>
       <c r="G37">
-        <v>2138300</v>
+        <v>2322100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1248,22 +1248,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1565616600</v>
+        <v>1566567000</v>
       </c>
       <c r="C38">
-        <v>124.9899978637695</v>
+        <v>122</v>
       </c>
       <c r="D38">
-        <v>125.7099990844727</v>
+        <v>122.0500030517578</v>
       </c>
       <c r="E38">
-        <v>123.8000030517578</v>
+        <v>117.0599975585938</v>
       </c>
       <c r="F38">
-        <v>123.9499969482422</v>
+        <v>117.7600021362305</v>
       </c>
       <c r="G38">
-        <v>2638800</v>
+        <v>4800400</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1271,22 +1271,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1565703000</v>
+        <v>1566826200</v>
       </c>
       <c r="C39">
-        <v>123.8600006103516</v>
+        <v>118.3300018310547</v>
       </c>
       <c r="D39">
-        <v>126.5</v>
+        <v>118.9400024414062</v>
       </c>
       <c r="E39">
-        <v>122.5100021362305</v>
+        <v>117.379997253418</v>
       </c>
       <c r="F39">
-        <v>126.3199996948242</v>
+        <v>118.5299987792969</v>
       </c>
       <c r="G39">
-        <v>3175700</v>
+        <v>3170600</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1294,22 +1294,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1565789400</v>
+        <v>1566912600</v>
       </c>
       <c r="C40">
-        <v>124.3499984741211</v>
+        <v>119.0899963378906</v>
       </c>
       <c r="D40">
-        <v>125.3300018310547</v>
+        <v>119.3399963378906</v>
       </c>
       <c r="E40">
-        <v>122.129997253418</v>
+        <v>116.8499984741211</v>
       </c>
       <c r="F40">
-        <v>122.6500015258789</v>
+        <v>117.75</v>
       </c>
       <c r="G40">
-        <v>5626300</v>
+        <v>3145800</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1317,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1565875800</v>
+        <v>1566999000</v>
       </c>
       <c r="C41">
-        <v>122.6500015258789</v>
+        <v>117.0299987792969</v>
       </c>
       <c r="D41">
-        <v>123</v>
+        <v>119.3099975585938</v>
       </c>
       <c r="E41">
-        <v>121.1399993896484</v>
+        <v>116.9700012207031</v>
       </c>
       <c r="F41">
-        <v>122.379997253418</v>
+        <v>119.0899963378906</v>
       </c>
       <c r="G41">
-        <v>3031700</v>
+        <v>2327400</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1340,22 +1340,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1565962200</v>
+        <v>1567085400</v>
       </c>
       <c r="C42">
-        <v>123.5</v>
+        <v>120.4599990844727</v>
       </c>
       <c r="D42">
-        <v>124.75</v>
+        <v>121.1999969482422</v>
       </c>
       <c r="E42">
-        <v>122.6900024414062</v>
+        <v>119.9599990844727</v>
       </c>
       <c r="F42">
-        <v>124.629997253418</v>
+        <v>120.7399978637695</v>
       </c>
       <c r="G42">
-        <v>2343400</v>
+        <v>1901300</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1363,22 +1363,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1566221400</v>
+        <v>1567171800</v>
       </c>
       <c r="C43">
-        <v>126.0999984741211</v>
+        <v>121.4700012207031</v>
       </c>
       <c r="D43">
-        <v>126.1500015258789</v>
+        <v>121.6600036621094</v>
       </c>
       <c r="E43">
-        <v>124.3399963378906</v>
+        <v>119.8199996948242</v>
       </c>
       <c r="F43">
-        <v>124.4000015258789</v>
+        <v>120.370002746582</v>
       </c>
       <c r="G43">
-        <v>3286700</v>
+        <v>2366200</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1386,22 +1386,22 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1566307800</v>
+        <v>1567517400</v>
       </c>
       <c r="C44">
-        <v>123.629997253418</v>
+        <v>119.8600006103516</v>
       </c>
       <c r="D44">
-        <v>123.7799987792969</v>
+        <v>120.2799987792969</v>
       </c>
       <c r="E44">
-        <v>121.3399963378906</v>
+        <v>117.5199966430664</v>
       </c>
       <c r="F44">
-        <v>121.4199981689453</v>
+        <v>117.5999984741211</v>
       </c>
       <c r="G44">
-        <v>3641600</v>
+        <v>3198700</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1409,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1566394200</v>
+        <v>1567603800</v>
       </c>
       <c r="C45">
-        <v>122.5</v>
+        <v>118.4199981689453</v>
       </c>
       <c r="D45">
-        <v>123.0599975585938</v>
+        <v>118.7300033569336</v>
       </c>
       <c r="E45">
-        <v>121.9899978637695</v>
+        <v>117.8000030517578</v>
       </c>
       <c r="F45">
-        <v>122.5</v>
+        <v>118.4000015258789</v>
       </c>
       <c r="G45">
-        <v>2948300</v>
+        <v>3746900</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1432,22 +1432,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1566480600</v>
+        <v>1567690200</v>
       </c>
       <c r="C46">
-        <v>123.3099975585938</v>
+        <v>119.5</v>
       </c>
       <c r="D46">
-        <v>123.7099990844727</v>
+        <v>121.629997253418</v>
       </c>
       <c r="E46">
-        <v>121.7699966430664</v>
+        <v>119.5</v>
       </c>
       <c r="F46">
-        <v>122.2699966430664</v>
+        <v>120.6699981689453</v>
       </c>
       <c r="G46">
-        <v>2322100</v>
+        <v>5261100</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1455,22 +1455,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1566567000</v>
+        <v>1567776600</v>
       </c>
       <c r="C47">
-        <v>122</v>
+        <v>121.1399993896484</v>
       </c>
       <c r="D47">
-        <v>122.0500030517578</v>
+        <v>121.1900024414062</v>
       </c>
       <c r="E47">
-        <v>117.0599975585938</v>
+        <v>120</v>
       </c>
       <c r="F47">
-        <v>117.7600021362305</v>
+        <v>120.1900024414062</v>
       </c>
       <c r="G47">
-        <v>4800400</v>
+        <v>4552400</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1478,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1566826200</v>
+        <v>1568035800</v>
       </c>
       <c r="C48">
-        <v>118.3300018310547</v>
+        <v>121.2099990844727</v>
       </c>
       <c r="D48">
-        <v>118.9400024414062</v>
+        <v>121.4100036621094</v>
       </c>
       <c r="E48">
-        <v>117.379997253418</v>
+        <v>119.5199966430664</v>
       </c>
       <c r="F48">
-        <v>118.5299987792969</v>
+        <v>119.9199981689453</v>
       </c>
       <c r="G48">
-        <v>3170600</v>
+        <v>5336000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1501,22 +1501,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1566912600</v>
+        <v>1568122200</v>
       </c>
       <c r="C49">
-        <v>119.0899963378906</v>
+        <v>119.5999984741211</v>
       </c>
       <c r="D49">
-        <v>119.3399963378906</v>
+        <v>119.6100006103516</v>
       </c>
       <c r="E49">
-        <v>116.8499984741211</v>
+        <v>116.3000030517578</v>
       </c>
       <c r="F49">
-        <v>117.75</v>
+        <v>117.3099975585938</v>
       </c>
       <c r="G49">
-        <v>3145800</v>
+        <v>6196100</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1524,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1566999000</v>
+        <v>1568208600</v>
       </c>
       <c r="C50">
-        <v>117.0299987792969</v>
+        <v>117.120002746582</v>
       </c>
       <c r="D50">
-        <v>119.3099975585938</v>
+        <v>118.0999984741211</v>
       </c>
       <c r="E50">
-        <v>116.9700012207031</v>
+        <v>116.75</v>
       </c>
       <c r="F50">
-        <v>119.0899963378906</v>
+        <v>118</v>
       </c>
       <c r="G50">
-        <v>2327400</v>
+        <v>3674400</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1547,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1567085400</v>
+        <v>1568295000</v>
       </c>
       <c r="C51">
-        <v>120.4599990844727</v>
+        <v>119</v>
       </c>
       <c r="D51">
-        <v>121.1999969482422</v>
+        <v>120.4300003051758</v>
       </c>
       <c r="E51">
-        <v>119.9599990844727</v>
+        <v>118.7799987792969</v>
       </c>
       <c r="F51">
-        <v>120.7399978637695</v>
+        <v>119.0199966430664</v>
       </c>
       <c r="G51">
-        <v>1901300</v>
+        <v>3733500</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1570,22 +1570,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1567171800</v>
+        <v>1568381400</v>
       </c>
       <c r="C52">
-        <v>121.4700012207031</v>
+        <v>119.2399978637695</v>
       </c>
       <c r="D52">
-        <v>121.6600036621094</v>
+        <v>119.9700012207031</v>
       </c>
       <c r="E52">
-        <v>119.8199996948242</v>
+        <v>118.2900009155273</v>
       </c>
       <c r="F52">
-        <v>120.370002746582</v>
+        <v>119.1999969482422</v>
       </c>
       <c r="G52">
-        <v>2366200</v>
+        <v>3941100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1593,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1567517400</v>
+        <v>1568640600</v>
       </c>
       <c r="C53">
-        <v>119.8600006103516</v>
+        <v>118.1399993896484</v>
       </c>
       <c r="D53">
-        <v>120.2799987792969</v>
+        <v>118.4400024414062</v>
       </c>
       <c r="E53">
-        <v>117.5199966430664</v>
+        <v>116.6800003051758</v>
       </c>
       <c r="F53">
-        <v>117.5999984741211</v>
+        <v>117.6399993896484</v>
       </c>
       <c r="G53">
-        <v>3198700</v>
+        <v>4280600</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1616,22 +1616,22 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1567603800</v>
+        <v>1568727000</v>
       </c>
       <c r="C54">
-        <v>118.4199981689453</v>
+        <v>117.9000015258789</v>
       </c>
       <c r="D54">
-        <v>118.7300033569336</v>
+        <v>119.129997253418</v>
       </c>
       <c r="E54">
-        <v>117.8000030517578</v>
+        <v>117.5</v>
       </c>
       <c r="F54">
-        <v>118.4000015258789</v>
+        <v>119.0500030517578</v>
       </c>
       <c r="G54">
-        <v>3746900</v>
+        <v>3054700</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1639,22 +1639,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1567690200</v>
+        <v>1568813400</v>
       </c>
       <c r="C55">
-        <v>119.5</v>
+        <v>118.5899963378906</v>
       </c>
       <c r="D55">
-        <v>121.629997253418</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="E55">
-        <v>119.5</v>
+        <v>117.4700012207031</v>
       </c>
       <c r="F55">
-        <v>120.6699981689453</v>
+        <v>118.7399978637695</v>
       </c>
       <c r="G55">
-        <v>5261100</v>
+        <v>2844500</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1662,22 +1662,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1567776600</v>
+        <v>1568899800</v>
       </c>
       <c r="C56">
-        <v>121.1399993896484</v>
+        <v>118.6100006103516</v>
       </c>
       <c r="D56">
-        <v>121.1900024414062</v>
+        <v>119.5199966430664</v>
       </c>
       <c r="E56">
-        <v>120</v>
+        <v>117.5999984741211</v>
       </c>
       <c r="F56">
-        <v>120.1900024414062</v>
+        <v>117.7900009155273</v>
       </c>
       <c r="G56">
-        <v>4552400</v>
+        <v>1975800</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1685,22 +1685,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1568035800</v>
+        <v>1568986200</v>
       </c>
       <c r="C57">
-        <v>121.2099990844727</v>
+        <v>117.8300018310547</v>
       </c>
       <c r="D57">
-        <v>121.4100036621094</v>
+        <v>118.2399978637695</v>
       </c>
       <c r="E57">
-        <v>119.5199966430664</v>
+        <v>116.370002746582</v>
       </c>
       <c r="F57">
-        <v>119.9199981689453</v>
+        <v>116.8000030517578</v>
       </c>
       <c r="G57">
-        <v>5336000</v>
+        <v>5301500</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1708,22 +1708,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1568122200</v>
+        <v>1569245400</v>
       </c>
       <c r="C58">
-        <v>119.5999984741211</v>
+        <v>116.3600006103516</v>
       </c>
       <c r="D58">
-        <v>119.6100006103516</v>
+        <v>118.4199981689453</v>
       </c>
       <c r="E58">
-        <v>116.3000030517578</v>
+        <v>116.0999984741211</v>
       </c>
       <c r="F58">
-        <v>117.3099975585938</v>
+        <v>118.2399978637695</v>
       </c>
       <c r="G58">
-        <v>6196100</v>
+        <v>5089400</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1731,22 +1731,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1568208600</v>
+        <v>1569331800</v>
       </c>
       <c r="C59">
-        <v>117.120002746582</v>
+        <v>118.8899993896484</v>
       </c>
       <c r="D59">
-        <v>118.0999984741211</v>
+        <v>120.1999969482422</v>
       </c>
       <c r="E59">
-        <v>116.75</v>
+        <v>117.5199966430664</v>
       </c>
       <c r="F59">
-        <v>118</v>
+        <v>118.1699981689453</v>
       </c>
       <c r="G59">
-        <v>3674400</v>
+        <v>5128400</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1754,22 +1754,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1568295000</v>
+        <v>1569418200</v>
       </c>
       <c r="C60">
-        <v>119</v>
+        <v>117.8600006103516</v>
       </c>
       <c r="D60">
-        <v>120.4300003051758</v>
+        <v>119.4400024414062</v>
       </c>
       <c r="E60">
-        <v>118.7799987792969</v>
+        <v>117.0599975585938</v>
       </c>
       <c r="F60">
-        <v>119.0199966430664</v>
+        <v>119.120002746582</v>
       </c>
       <c r="G60">
-        <v>3733500</v>
+        <v>2742900</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1777,22 +1777,22 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1568381400</v>
+        <v>1569504600</v>
       </c>
       <c r="C61">
-        <v>119.2399978637695</v>
+        <v>119.3099975585938</v>
       </c>
       <c r="D61">
-        <v>119.9700012207031</v>
+        <v>120.0299987792969</v>
       </c>
       <c r="E61">
-        <v>118.2900009155273</v>
+        <v>118.8399963378906</v>
       </c>
       <c r="F61">
-        <v>119.1999969482422</v>
+        <v>118.9100036621094</v>
       </c>
       <c r="G61">
-        <v>3941100</v>
+        <v>3411200</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1800,22 +1800,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1568640600</v>
+        <v>1569591000</v>
       </c>
       <c r="C62">
-        <v>118.1399993896484</v>
+        <v>119.129997253418</v>
       </c>
       <c r="D62">
-        <v>118.4400024414062</v>
+        <v>119.620002746582</v>
       </c>
       <c r="E62">
-        <v>116.6800003051758</v>
+        <v>117.9800033569336</v>
       </c>
       <c r="F62">
-        <v>117.6399993896484</v>
+        <v>118.5899963378906</v>
       </c>
       <c r="G62">
-        <v>4280600</v>
+        <v>2909200</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1823,22 +1823,22 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1568727000</v>
+        <v>1569850200</v>
       </c>
       <c r="C63">
-        <v>117.9000015258789</v>
+        <v>119.0500030517578</v>
       </c>
       <c r="D63">
-        <v>119.129997253418</v>
+        <v>119.2399978637695</v>
       </c>
       <c r="E63">
-        <v>117.5</v>
+        <v>118.1399993896484</v>
       </c>
       <c r="F63">
-        <v>119.0500030517578</v>
+        <v>118.2799987792969</v>
       </c>
       <c r="G63">
-        <v>3054700</v>
+        <v>2345800</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1846,22 +1846,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1568813400</v>
+        <v>1569936600</v>
       </c>
       <c r="C64">
-        <v>118.5899963378906</v>
+        <v>118.6999969482422</v>
       </c>
       <c r="D64">
-        <v>118.8000030517578</v>
+        <v>119.5</v>
       </c>
       <c r="E64">
-        <v>117.4700012207031</v>
+        <v>116.6100006103516</v>
       </c>
       <c r="F64">
-        <v>118.7399978637695</v>
+        <v>116.6999969482422</v>
       </c>
       <c r="G64">
-        <v>2844500</v>
+        <v>2841300</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1869,22 +1869,22 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1568899800</v>
+        <v>1570023000</v>
       </c>
       <c r="C65">
-        <v>118.6100006103516</v>
+        <v>115.7600021362305</v>
       </c>
       <c r="D65">
-        <v>119.5199966430664</v>
+        <v>115.8099975585938</v>
       </c>
       <c r="E65">
-        <v>117.5999984741211</v>
+        <v>112.75</v>
       </c>
       <c r="F65">
-        <v>117.7900009155273</v>
+        <v>112.8600006103516</v>
       </c>
       <c r="G65">
-        <v>1975800</v>
+        <v>4908800</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1892,22 +1892,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1568986200</v>
+        <v>1570109400</v>
       </c>
       <c r="C66">
-        <v>117.8300018310547</v>
+        <v>112.1999969482422</v>
       </c>
       <c r="D66">
-        <v>118.2399978637695</v>
+        <v>112.9599990844727</v>
       </c>
       <c r="E66">
-        <v>116.370002746582</v>
+        <v>111.0599975585938</v>
       </c>
       <c r="F66">
-        <v>116.8000030517578</v>
+        <v>112.5500030517578</v>
       </c>
       <c r="G66">
-        <v>5301500</v>
+        <v>3529300</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1915,22 +1915,22 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1569245400</v>
+        <v>1570195800</v>
       </c>
       <c r="C67">
-        <v>116.3600006103516</v>
+        <v>112.6600036621094</v>
       </c>
       <c r="D67">
-        <v>118.4199981689453</v>
+        <v>114.5299987792969</v>
       </c>
       <c r="E67">
-        <v>116.0999984741211</v>
+        <v>112.5999984741211</v>
       </c>
       <c r="F67">
-        <v>118.2399978637695</v>
+        <v>114.4100036621094</v>
       </c>
       <c r="G67">
-        <v>5089400</v>
+        <v>2728200</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1938,22 +1938,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1569331800</v>
+        <v>1570455000</v>
       </c>
       <c r="C68">
-        <v>118.8899993896484</v>
+        <v>113.9100036621094</v>
       </c>
       <c r="D68">
-        <v>120.1999969482422</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="E68">
-        <v>117.5199966430664</v>
+        <v>113.5999984741211</v>
       </c>
       <c r="F68">
-        <v>118.1699981689453</v>
+        <v>113.6500015258789</v>
       </c>
       <c r="G68">
-        <v>5128400</v>
+        <v>2556000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1569418200</v>
+        <v>1570541400</v>
       </c>
       <c r="C69">
-        <v>117.8600006103516</v>
+        <v>112.8300018310547</v>
       </c>
       <c r="D69">
-        <v>119.4400024414062</v>
+        <v>113.6500015258789</v>
       </c>
       <c r="E69">
-        <v>117.0599975585938</v>
+        <v>112.0500030517578</v>
       </c>
       <c r="F69">
-        <v>119.120002746582</v>
+        <v>112.5400009155273</v>
       </c>
       <c r="G69">
-        <v>2742900</v>
+        <v>3757300</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1984,22 +1984,22 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1569504600</v>
+        <v>1570627800</v>
       </c>
       <c r="C70">
-        <v>119.3099975585938</v>
+        <v>113.25</v>
       </c>
       <c r="D70">
-        <v>120.0299987792969</v>
+        <v>114.7699966430664</v>
       </c>
       <c r="E70">
-        <v>118.8399963378906</v>
+        <v>113.2300033569336</v>
       </c>
       <c r="F70">
-        <v>118.9100036621094</v>
+        <v>113.9199981689453</v>
       </c>
       <c r="G70">
-        <v>3411200</v>
+        <v>2365600</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2007,22 +2007,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1569591000</v>
+        <v>1570714200</v>
       </c>
       <c r="C71">
-        <v>119.129997253418</v>
+        <v>114.8099975585938</v>
       </c>
       <c r="D71">
-        <v>119.620002746582</v>
+        <v>115.7900009155273</v>
       </c>
       <c r="E71">
-        <v>117.9800033569336</v>
+        <v>113.9300003051758</v>
       </c>
       <c r="F71">
-        <v>118.5899963378906</v>
+        <v>115.0199966430664</v>
       </c>
       <c r="G71">
-        <v>2909200</v>
+        <v>2384300</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2030,22 +2030,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1569850200</v>
+        <v>1570800600</v>
       </c>
       <c r="C72">
-        <v>119.0500030517578</v>
+        <v>116.7399978637695</v>
       </c>
       <c r="D72">
-        <v>119.2399978637695</v>
+        <v>117.5699996948242</v>
       </c>
       <c r="E72">
-        <v>118.1399993896484</v>
+        <v>116.1900024414062</v>
       </c>
       <c r="F72">
-        <v>118.2799987792969</v>
+        <v>116.4000015258789</v>
       </c>
       <c r="G72">
-        <v>2345800</v>
+        <v>2860400</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2053,22 +2053,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1569936600</v>
+        <v>1571059800</v>
       </c>
       <c r="C73">
-        <v>118.6999969482422</v>
+        <v>116.1399993896484</v>
       </c>
       <c r="D73">
-        <v>119.5</v>
+        <v>117</v>
       </c>
       <c r="E73">
-        <v>116.6100006103516</v>
+        <v>115.9400024414062</v>
       </c>
       <c r="F73">
-        <v>116.6999969482422</v>
+        <v>116.3899993896484</v>
       </c>
       <c r="G73">
-        <v>2841300</v>
+        <v>1864400</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2076,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1570023000</v>
+        <v>1571146200</v>
       </c>
       <c r="C74">
-        <v>115.7600021362305</v>
+        <v>117.0299987792969</v>
       </c>
       <c r="D74">
-        <v>115.8099975585938</v>
+        <v>118.1900024414062</v>
       </c>
       <c r="E74">
-        <v>112.75</v>
+        <v>116.7300033569336</v>
       </c>
       <c r="F74">
-        <v>112.8600006103516</v>
+        <v>117.5899963378906</v>
       </c>
       <c r="G74">
-        <v>4908800</v>
+        <v>2379700</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2099,22 +2099,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1570109400</v>
+        <v>1571232600</v>
       </c>
       <c r="C75">
-        <v>112.1999969482422</v>
+        <v>117.629997253418</v>
       </c>
       <c r="D75">
-        <v>112.9599990844727</v>
+        <v>117.9899978637695</v>
       </c>
       <c r="E75">
-        <v>111.0599975585938</v>
+        <v>117.0699996948242</v>
       </c>
       <c r="F75">
-        <v>112.5500030517578</v>
+        <v>117.4100036621094</v>
       </c>
       <c r="G75">
-        <v>3529300</v>
+        <v>2136700</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2122,22 +2122,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1570195800</v>
+        <v>1571319000</v>
       </c>
       <c r="C76">
-        <v>112.6600036621094</v>
+        <v>118.0100021362305</v>
       </c>
       <c r="D76">
-        <v>114.5299987792969</v>
+        <v>119.3300018310547</v>
       </c>
       <c r="E76">
-        <v>112.5999984741211</v>
+        <v>117.9599990844727</v>
       </c>
       <c r="F76">
-        <v>114.4100036621094</v>
+        <v>119.0999984741211</v>
       </c>
       <c r="G76">
-        <v>2728200</v>
+        <v>3005500</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2145,22 +2145,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1570455000</v>
+        <v>1571405400</v>
       </c>
       <c r="C77">
-        <v>113.9100036621094</v>
+        <v>119.7300033569336</v>
       </c>
       <c r="D77">
-        <v>114.6500015258789</v>
+        <v>119.9800033569336</v>
       </c>
       <c r="E77">
-        <v>113.5999984741211</v>
+        <v>116.6699981689453</v>
       </c>
       <c r="F77">
-        <v>113.6500015258789</v>
+        <v>116.7600021362305</v>
       </c>
       <c r="G77">
-        <v>2556000</v>
+        <v>6188500</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2168,22 +2168,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1570541400</v>
+        <v>1571664600</v>
       </c>
       <c r="C78">
-        <v>112.8300018310547</v>
+        <v>117.5500030517578</v>
       </c>
       <c r="D78">
-        <v>113.6500015258789</v>
+        <v>119.379997253418</v>
       </c>
       <c r="E78">
-        <v>112.0500030517578</v>
+        <v>117.4899978637695</v>
       </c>
       <c r="F78">
-        <v>112.5400009155273</v>
+        <v>119.0500030517578</v>
       </c>
       <c r="G78">
-        <v>3757300</v>
+        <v>4259500</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2191,22 +2191,22 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1570627800</v>
+        <v>1571751000</v>
       </c>
       <c r="C79">
-        <v>113.25</v>
+        <v>118.6699981689453</v>
       </c>
       <c r="D79">
-        <v>114.7699966430664</v>
+        <v>119.3499984741211</v>
       </c>
       <c r="E79">
-        <v>113.2300033569336</v>
+        <v>118.2900009155273</v>
       </c>
       <c r="F79">
-        <v>113.9199981689453</v>
+        <v>118.6100006103516</v>
       </c>
       <c r="G79">
-        <v>2365600</v>
+        <v>3912100</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2214,22 +2214,22 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1570714200</v>
+        <v>1571837400</v>
       </c>
       <c r="C80">
-        <v>114.8099975585938</v>
+        <v>118.4199981689453</v>
       </c>
       <c r="D80">
-        <v>115.7900009155273</v>
+        <v>119.2300033569336</v>
       </c>
       <c r="E80">
-        <v>113.9300003051758</v>
+        <v>115.5100021362305</v>
       </c>
       <c r="F80">
-        <v>115.0199966430664</v>
+        <v>116.4899978637695</v>
       </c>
       <c r="G80">
-        <v>2384300</v>
+        <v>3921100</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2237,22 +2237,22 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1570800600</v>
+        <v>1571923800</v>
       </c>
       <c r="C81">
-        <v>116.7399978637695</v>
+        <v>116.4400024414062</v>
       </c>
       <c r="D81">
-        <v>117.5699996948242</v>
+        <v>116.9000015258789</v>
       </c>
       <c r="E81">
-        <v>116.1900024414062</v>
+        <v>116.1399993896484</v>
       </c>
       <c r="F81">
-        <v>116.4000015258789</v>
+        <v>116.4100036621094</v>
       </c>
       <c r="G81">
-        <v>2860400</v>
+        <v>2551300</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2260,22 +2260,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1571059800</v>
+        <v>1572010200</v>
       </c>
       <c r="C82">
-        <v>116.1399993896484</v>
+        <v>116.3600006103516</v>
       </c>
       <c r="D82">
-        <v>117</v>
+        <v>118.5100021362305</v>
       </c>
       <c r="E82">
-        <v>115.9400024414062</v>
+        <v>116.2699966430664</v>
       </c>
       <c r="F82">
-        <v>116.3899993896484</v>
+        <v>118.2600021362305</v>
       </c>
       <c r="G82">
-        <v>1864400</v>
+        <v>2324800</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2283,22 +2283,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1571146200</v>
+        <v>1572269400</v>
       </c>
       <c r="C83">
-        <v>117.0299987792969</v>
+        <v>118.6399993896484</v>
       </c>
       <c r="D83">
-        <v>118.1900024414062</v>
+        <v>119.3000030517578</v>
       </c>
       <c r="E83">
-        <v>116.7300033569336</v>
+        <v>118.0699996948242</v>
       </c>
       <c r="F83">
-        <v>117.5899963378906</v>
+        <v>118.5800018310547</v>
       </c>
       <c r="G83">
-        <v>2379700</v>
+        <v>2552700</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2306,22 +2306,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1571232600</v>
+        <v>1572355800</v>
       </c>
       <c r="C84">
-        <v>117.629997253418</v>
+        <v>118.0899963378906</v>
       </c>
       <c r="D84">
-        <v>117.9899978637695</v>
+        <v>118.8300018310547</v>
       </c>
       <c r="E84">
-        <v>117.0699996948242</v>
+        <v>117.0800018310547</v>
       </c>
       <c r="F84">
-        <v>117.4100036621094</v>
+        <v>117.4199981689453</v>
       </c>
       <c r="G84">
-        <v>2136700</v>
+        <v>2756300</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2329,22 +2329,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1571319000</v>
+        <v>1572442200</v>
       </c>
       <c r="C85">
-        <v>118.0100021362305</v>
+        <v>117.4400024414062</v>
       </c>
       <c r="D85">
-        <v>119.3300018310547</v>
+        <v>118.1699981689453</v>
       </c>
       <c r="E85">
-        <v>117.9599990844727</v>
+        <v>116.8600006103516</v>
       </c>
       <c r="F85">
-        <v>119.0999984741211</v>
+        <v>118.0699996948242</v>
       </c>
       <c r="G85">
-        <v>3005500</v>
+        <v>2264200</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2352,22 +2352,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1571405400</v>
+        <v>1572528600</v>
       </c>
       <c r="C86">
-        <v>119.7300033569336</v>
+        <v>117.7900009155273</v>
       </c>
       <c r="D86">
-        <v>119.9800033569336</v>
+        <v>118.2099990844727</v>
       </c>
       <c r="E86">
-        <v>116.6699981689453</v>
+        <v>116.8899993896484</v>
       </c>
       <c r="F86">
-        <v>116.7600021362305</v>
+        <v>117.2799987792969</v>
       </c>
       <c r="G86">
-        <v>6188500</v>
+        <v>2507400</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2375,22 +2375,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1571664600</v>
+        <v>1572615000</v>
       </c>
       <c r="C87">
-        <v>117.5500030517578</v>
+        <v>118.4100036621094</v>
       </c>
       <c r="D87">
-        <v>119.379997253418</v>
+        <v>119.4499969482422</v>
       </c>
       <c r="E87">
-        <v>117.4899978637695</v>
+        <v>118.1699981689453</v>
       </c>
       <c r="F87">
-        <v>119.0500030517578</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="G87">
-        <v>4259500</v>
+        <v>2036500</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1571751000</v>
+        <v>1572877800</v>
       </c>
       <c r="C88">
-        <v>118.6699981689453</v>
+        <v>119.620002746582</v>
       </c>
       <c r="D88">
-        <v>119.3499984741211</v>
+        <v>120.5</v>
       </c>
       <c r="E88">
-        <v>118.2900009155273</v>
+        <v>119.0100021362305</v>
       </c>
       <c r="F88">
-        <v>118.6100006103516</v>
+        <v>119.620002746582</v>
       </c>
       <c r="G88">
-        <v>3912100</v>
+        <v>1956400</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1571837400</v>
+        <v>1572964200</v>
       </c>
       <c r="C89">
-        <v>118.4199981689453</v>
+        <v>119.8399963378906</v>
       </c>
       <c r="D89">
-        <v>119.2300033569336</v>
+        <v>119.9599990844727</v>
       </c>
       <c r="E89">
-        <v>115.5100021362305</v>
+        <v>117.7600021362305</v>
       </c>
       <c r="F89">
-        <v>116.4899978637695</v>
+        <v>118.7699966430664</v>
       </c>
       <c r="G89">
-        <v>3921100</v>
+        <v>2630000</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2444,22 +2444,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1571923800</v>
+        <v>1573050600</v>
       </c>
       <c r="C90">
-        <v>116.4400024414062</v>
+        <v>118.8899993896484</v>
       </c>
       <c r="D90">
-        <v>116.9000015258789</v>
+        <v>119.7200012207031</v>
       </c>
       <c r="E90">
-        <v>116.1399993896484</v>
+        <v>118.8899993896484</v>
       </c>
       <c r="F90">
-        <v>116.4100036621094</v>
+        <v>119.6900024414062</v>
       </c>
       <c r="G90">
-        <v>2551300</v>
+        <v>2420700</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2467,22 +2467,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1572010200</v>
+        <v>1573137000</v>
       </c>
       <c r="C91">
-        <v>116.3600006103516</v>
+        <v>120.2699966430664</v>
       </c>
       <c r="D91">
-        <v>118.5100021362305</v>
+        <v>122.4300003051758</v>
       </c>
       <c r="E91">
-        <v>116.2699966430664</v>
+        <v>120.0999984741211</v>
       </c>
       <c r="F91">
-        <v>118.2600021362305</v>
+        <v>121.2799987792969</v>
       </c>
       <c r="G91">
-        <v>2324800</v>
+        <v>2845000</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2490,22 +2490,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1572269400</v>
+        <v>1573223400</v>
       </c>
       <c r="C92">
-        <v>118.6399993896484</v>
+        <v>121.0100021362305</v>
       </c>
       <c r="D92">
-        <v>119.3000030517578</v>
+        <v>121.8099975585938</v>
       </c>
       <c r="E92">
-        <v>118.0699996948242</v>
+        <v>120.8899993896484</v>
       </c>
       <c r="F92">
-        <v>118.5800018310547</v>
+        <v>121.4700012207031</v>
       </c>
       <c r="G92">
-        <v>2552700</v>
+        <v>1984600</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2513,22 +2513,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1572355800</v>
+        <v>1573482600</v>
       </c>
       <c r="C93">
-        <v>118.0899963378906</v>
+        <v>120.7600021362305</v>
       </c>
       <c r="D93">
-        <v>118.8300018310547</v>
+        <v>121.8099975585938</v>
       </c>
       <c r="E93">
-        <v>117.0800018310547</v>
+        <v>120.5100021362305</v>
       </c>
       <c r="F93">
-        <v>117.4199981689453</v>
+        <v>120.9000015258789</v>
       </c>
       <c r="G93">
-        <v>2756300</v>
+        <v>1704100</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2536,22 +2536,22 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1572442200</v>
+        <v>1573569000</v>
       </c>
       <c r="C94">
-        <v>117.4400024414062</v>
+        <v>120.870002746582</v>
       </c>
       <c r="D94">
-        <v>118.1699981689453</v>
+        <v>121.2300033569336</v>
       </c>
       <c r="E94">
-        <v>116.8600006103516</v>
+        <v>120.4100036621094</v>
       </c>
       <c r="F94">
-        <v>118.0699996948242</v>
+        <v>120.8899993896484</v>
       </c>
       <c r="G94">
-        <v>2264200</v>
+        <v>2012400</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2559,22 +2559,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1572528600</v>
+        <v>1573655400</v>
       </c>
       <c r="C95">
-        <v>117.7900009155273</v>
+        <v>120.2699966430664</v>
       </c>
       <c r="D95">
-        <v>118.2099990844727</v>
+        <v>120.9700012207031</v>
       </c>
       <c r="E95">
-        <v>116.8899993896484</v>
+        <v>120.129997253418</v>
       </c>
       <c r="F95">
-        <v>117.2799987792969</v>
+        <v>120.2600021362305</v>
       </c>
       <c r="G95">
-        <v>2507400</v>
+        <v>1807900</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2582,22 +2582,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1572615000</v>
+        <v>1573741800</v>
       </c>
       <c r="C96">
-        <v>118.4100036621094</v>
+        <v>120</v>
       </c>
       <c r="D96">
-        <v>119.4499969482422</v>
+        <v>120.9800033569336</v>
       </c>
       <c r="E96">
-        <v>118.1699981689453</v>
+        <v>119.8000030517578</v>
       </c>
       <c r="F96">
-        <v>119.1399993896484</v>
+        <v>120.9300003051758</v>
       </c>
       <c r="G96">
-        <v>2036500</v>
+        <v>1990600</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2605,22 +2605,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1572877800</v>
+        <v>1573828200</v>
       </c>
       <c r="C97">
-        <v>119.620002746582</v>
+        <v>120.9800033569336</v>
       </c>
       <c r="D97">
-        <v>120.5</v>
+        <v>121.3300018310547</v>
       </c>
       <c r="E97">
-        <v>119.0100021362305</v>
+        <v>120.3899993896484</v>
       </c>
       <c r="F97">
-        <v>119.620002746582</v>
+        <v>120.7600021362305</v>
       </c>
       <c r="G97">
-        <v>1956400</v>
+        <v>2341500</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2628,22 +2628,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1572964200</v>
+        <v>1574087400</v>
       </c>
       <c r="C98">
-        <v>119.8399963378906</v>
+        <v>120.5599975585938</v>
       </c>
       <c r="D98">
-        <v>119.9599990844727</v>
+        <v>120.8499984741211</v>
       </c>
       <c r="E98">
-        <v>117.7600021362305</v>
+        <v>119.4000015258789</v>
       </c>
       <c r="F98">
-        <v>118.7699966430664</v>
+        <v>119.6600036621094</v>
       </c>
       <c r="G98">
-        <v>2630000</v>
+        <v>2617900</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2651,22 +2651,22 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1573050600</v>
+        <v>1574173800</v>
       </c>
       <c r="C99">
-        <v>118.8899993896484</v>
+        <v>120.0100021362305</v>
       </c>
       <c r="D99">
-        <v>119.7200012207031</v>
+        <v>120.4499969482422</v>
       </c>
       <c r="E99">
-        <v>118.8899993896484</v>
+        <v>119.8600006103516</v>
       </c>
       <c r="F99">
-        <v>119.6900024414062</v>
+        <v>120</v>
       </c>
       <c r="G99">
-        <v>2420700</v>
+        <v>1891000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2674,22 +2674,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1573137000</v>
+        <v>1574260200</v>
       </c>
       <c r="C100">
-        <v>120.2699966430664</v>
+        <v>119.8300018310547</v>
       </c>
       <c r="D100">
-        <v>122.4300003051758</v>
+        <v>120.2300033569336</v>
       </c>
       <c r="E100">
-        <v>120.0999984741211</v>
+        <v>118.9300003051758</v>
       </c>
       <c r="F100">
-        <v>121.2799987792969</v>
+        <v>119.3000030517578</v>
       </c>
       <c r="G100">
-        <v>2845000</v>
+        <v>2544100</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2697,22 +2697,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1573223400</v>
+        <v>1574346600</v>
       </c>
       <c r="C101">
-        <v>121.0100021362305</v>
+        <v>119.2900009155273</v>
       </c>
       <c r="D101">
-        <v>121.8099975585938</v>
+        <v>119.4700012207031</v>
       </c>
       <c r="E101">
-        <v>120.8899993896484</v>
+        <v>118.4899978637695</v>
       </c>
       <c r="F101">
-        <v>121.4700012207031</v>
+        <v>118.8000030517578</v>
       </c>
       <c r="G101">
-        <v>1984600</v>
+        <v>2783800</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2720,22 +2720,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1573482600</v>
+        <v>1574433000</v>
       </c>
       <c r="C102">
-        <v>120.7600021362305</v>
+        <v>119.2099990844727</v>
       </c>
       <c r="D102">
-        <v>121.8099975585938</v>
+        <v>119.2900009155273</v>
       </c>
       <c r="E102">
-        <v>120.5100021362305</v>
+        <v>118.4100036621094</v>
       </c>
       <c r="F102">
-        <v>120.9000015258789</v>
+        <v>119.0599975585938</v>
       </c>
       <c r="G102">
-        <v>1704100</v>
+        <v>1629700</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2743,22 +2743,22 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1573569000</v>
+        <v>1574692200</v>
       </c>
       <c r="C103">
-        <v>120.870002746582</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="D103">
-        <v>121.2300033569336</v>
+        <v>120.5999984741211</v>
       </c>
       <c r="E103">
-        <v>120.4100036621094</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="F103">
-        <v>120.8899993896484</v>
+        <v>120.5999984741211</v>
       </c>
       <c r="G103">
-        <v>2012400</v>
+        <v>2285400</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2766,22 +2766,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1573655400</v>
+        <v>1574778600</v>
       </c>
       <c r="C104">
-        <v>120.2699966430664</v>
+        <v>120.9100036621094</v>
       </c>
       <c r="D104">
-        <v>120.9700012207031</v>
+        <v>121.0400009155273</v>
       </c>
       <c r="E104">
-        <v>120.129997253418</v>
+        <v>119.5999984741211</v>
       </c>
       <c r="F104">
-        <v>120.2600021362305</v>
+        <v>119.7900009155273</v>
       </c>
       <c r="G104">
-        <v>1807900</v>
+        <v>4596200</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2789,22 +2789,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1573741800</v>
+        <v>1574865000</v>
       </c>
       <c r="C105">
         <v>120</v>
       </c>
       <c r="D105">
-        <v>120.9800033569336</v>
+        <v>120.3600006103516</v>
       </c>
       <c r="E105">
-        <v>119.8000030517578</v>
+        <v>119.3499984741211</v>
       </c>
       <c r="F105">
-        <v>120.9300003051758</v>
+        <v>120.3300018310547</v>
       </c>
       <c r="G105">
-        <v>1990600</v>
+        <v>2629700</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2812,22 +2812,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1573828200</v>
+        <v>1575037800</v>
       </c>
       <c r="C106">
-        <v>120.9800033569336</v>
+        <v>120.0699996948242</v>
       </c>
       <c r="D106">
-        <v>121.3300018310547</v>
+        <v>120.8899993896484</v>
       </c>
       <c r="E106">
-        <v>120.3899993896484</v>
+        <v>119.7799987792969</v>
       </c>
       <c r="F106">
-        <v>120.7600021362305</v>
+        <v>120.120002746582</v>
       </c>
       <c r="G106">
-        <v>2341500</v>
+        <v>1961500</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2835,22 +2835,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1574087400</v>
+        <v>1575297000</v>
       </c>
       <c r="C107">
-        <v>120.5599975585938</v>
+        <v>120.3099975585938</v>
       </c>
       <c r="D107">
-        <v>120.8499984741211</v>
+        <v>120.3600006103516</v>
       </c>
       <c r="E107">
-        <v>119.4000015258789</v>
+        <v>117.0699996948242</v>
       </c>
       <c r="F107">
-        <v>119.6600036621094</v>
+        <v>117.2600021362305</v>
       </c>
       <c r="G107">
-        <v>2617900</v>
+        <v>5538200</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2858,22 +2858,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1574173800</v>
+        <v>1575383400</v>
       </c>
       <c r="C108">
-        <v>120.0100021362305</v>
+        <v>116.0400009155273</v>
       </c>
       <c r="D108">
-        <v>120.4499969482422</v>
+        <v>116.75</v>
       </c>
       <c r="E108">
-        <v>119.8600006103516</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="F108">
-        <v>120</v>
+        <v>116.5699996948242</v>
       </c>
       <c r="G108">
-        <v>1891000</v>
+        <v>3792300</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2881,22 +2881,22 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1574260200</v>
+        <v>1575469800</v>
       </c>
       <c r="C109">
-        <v>119.8300018310547</v>
+        <v>117.3099975585938</v>
       </c>
       <c r="D109">
-        <v>120.2300033569336</v>
+        <v>118.5400009155273</v>
       </c>
       <c r="E109">
-        <v>118.9300003051758</v>
+        <v>117</v>
       </c>
       <c r="F109">
-        <v>119.3000030517578</v>
+        <v>117.9400024414062</v>
       </c>
       <c r="G109">
-        <v>2544100</v>
+        <v>2444100</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2904,22 +2904,22 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1574346600</v>
+        <v>1575556200</v>
       </c>
       <c r="C110">
-        <v>119.2900009155273</v>
+        <v>117.9100036621094</v>
       </c>
       <c r="D110">
-        <v>119.4700012207031</v>
+        <v>118.4300003051758</v>
       </c>
       <c r="E110">
-        <v>118.4899978637695</v>
+        <v>117.5899963378906</v>
       </c>
       <c r="F110">
-        <v>118.8000030517578</v>
+        <v>118.2799987792969</v>
       </c>
       <c r="G110">
-        <v>2783800</v>
+        <v>3128300</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2927,22 +2927,22 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1574433000</v>
+        <v>1575642600</v>
       </c>
       <c r="C111">
-        <v>119.2099990844727</v>
+        <v>120.2099990844727</v>
       </c>
       <c r="D111">
-        <v>119.2900009155273</v>
+        <v>121.4400024414062</v>
       </c>
       <c r="E111">
-        <v>118.4100036621094</v>
+        <v>119.9100036621094</v>
       </c>
       <c r="F111">
-        <v>119.0599975585938</v>
+        <v>120.6100006103516</v>
       </c>
       <c r="G111">
-        <v>1629700</v>
+        <v>3287600</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2950,22 +2950,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1574692200</v>
+        <v>1575901800</v>
       </c>
       <c r="C112">
-        <v>119.1399993896484</v>
+        <v>120.4400024414062</v>
       </c>
       <c r="D112">
-        <v>120.5999984741211</v>
+        <v>121.5299987792969</v>
       </c>
       <c r="E112">
-        <v>119.1399993896484</v>
+        <v>120.1100006103516</v>
       </c>
       <c r="F112">
-        <v>120.5999984741211</v>
+        <v>120.4599990844727</v>
       </c>
       <c r="G112">
-        <v>2285400</v>
+        <v>2885200</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2973,22 +2973,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1574778600</v>
+        <v>1575988200</v>
       </c>
       <c r="C113">
-        <v>120.9100036621094</v>
+        <v>120.4499969482422</v>
       </c>
       <c r="D113">
-        <v>121.0400009155273</v>
+        <v>121.4700012207031</v>
       </c>
       <c r="E113">
-        <v>119.5999984741211</v>
+        <v>120.0299987792969</v>
       </c>
       <c r="F113">
-        <v>119.7900009155273</v>
+        <v>120.9000015258789</v>
       </c>
       <c r="G113">
-        <v>4596200</v>
+        <v>2518200</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -2996,22 +2996,22 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1574865000</v>
+        <v>1576074600</v>
       </c>
       <c r="C114">
-        <v>120</v>
+        <v>120.879997253418</v>
       </c>
       <c r="D114">
-        <v>120.3600006103516</v>
+        <v>121.379997253418</v>
       </c>
       <c r="E114">
-        <v>119.3499984741211</v>
+        <v>120.0999984741211</v>
       </c>
       <c r="F114">
-        <v>120.3300018310547</v>
+        <v>120.6399993896484</v>
       </c>
       <c r="G114">
-        <v>2629700</v>
+        <v>2015300</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3019,22 +3019,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1575037800</v>
+        <v>1576161000</v>
       </c>
       <c r="C115">
-        <v>120.0699996948242</v>
+        <v>120.5999984741211</v>
       </c>
       <c r="D115">
-        <v>120.8899993896484</v>
+        <v>123.0699996948242</v>
       </c>
       <c r="E115">
-        <v>119.7799987792969</v>
+        <v>120.0500030517578</v>
       </c>
       <c r="F115">
-        <v>120.120002746582</v>
+        <v>122.6399993896484</v>
       </c>
       <c r="G115">
-        <v>1961500</v>
+        <v>2933800</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3042,22 +3042,22 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1575297000</v>
+        <v>1576247400</v>
       </c>
       <c r="C116">
-        <v>120.3099975585938</v>
+        <v>122.4700012207031</v>
       </c>
       <c r="D116">
-        <v>120.3600006103516</v>
+        <v>124.9899978637695</v>
       </c>
       <c r="E116">
-        <v>117.0699996948242</v>
+        <v>122.0800018310547</v>
       </c>
       <c r="F116">
-        <v>117.2600021362305</v>
+        <v>124.7200012207031</v>
       </c>
       <c r="G116">
-        <v>5538200</v>
+        <v>3919000</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3065,22 +3065,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1575383400</v>
+        <v>1576506600</v>
       </c>
       <c r="C117">
-        <v>116.0400009155273</v>
+        <v>125.6500015258789</v>
       </c>
       <c r="D117">
-        <v>116.75</v>
+        <v>126.3300018310547</v>
       </c>
       <c r="E117">
-        <v>114.6500015258789</v>
+        <v>123.3399963378906</v>
       </c>
       <c r="F117">
-        <v>116.5699996948242</v>
+        <v>123.6800003051758</v>
       </c>
       <c r="G117">
-        <v>3792300</v>
+        <v>3416100</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3088,22 +3088,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1575469800</v>
+        <v>1576593000</v>
       </c>
       <c r="C118">
-        <v>117.3099975585938</v>
+        <v>123.9899978637695</v>
       </c>
       <c r="D118">
-        <v>118.5400009155273</v>
+        <v>125.4000015258789</v>
       </c>
       <c r="E118">
-        <v>117</v>
+        <v>123.25</v>
       </c>
       <c r="F118">
-        <v>117.9400024414062</v>
+        <v>124.9499969482422</v>
       </c>
       <c r="G118">
-        <v>2444100</v>
+        <v>4325200</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3111,22 +3111,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1575556200</v>
+        <v>1576679400</v>
       </c>
       <c r="C119">
-        <v>117.9100036621094</v>
+        <v>125.0299987792969</v>
       </c>
       <c r="D119">
-        <v>118.4300003051758</v>
+        <v>125.0699996948242</v>
       </c>
       <c r="E119">
-        <v>117.5899963378906</v>
+        <v>124.0800018310547</v>
       </c>
       <c r="F119">
-        <v>118.2799987792969</v>
+        <v>124.2600021362305</v>
       </c>
       <c r="G119">
-        <v>3128300</v>
+        <v>3154200</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3134,22 +3134,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1575642600</v>
+        <v>1576765800</v>
       </c>
       <c r="C120">
-        <v>120.2099990844727</v>
+        <v>124.1800003051758</v>
       </c>
       <c r="D120">
-        <v>121.4400024414062</v>
+        <v>124.9000015258789</v>
       </c>
       <c r="E120">
-        <v>119.9100036621094</v>
+        <v>123.879997253418</v>
       </c>
       <c r="F120">
-        <v>120.6100006103516</v>
+        <v>124.8300018310547</v>
       </c>
       <c r="G120">
-        <v>3287600</v>
+        <v>2543600</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3157,22 +3157,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1575901800</v>
+        <v>1576852200</v>
       </c>
       <c r="C121">
-        <v>120.4400024414062</v>
+        <v>125.8600006103516</v>
       </c>
       <c r="D121">
-        <v>121.5299987792969</v>
+        <v>126.2799987792969</v>
       </c>
       <c r="E121">
-        <v>120.1100006103516</v>
+        <v>124.8300018310547</v>
       </c>
       <c r="F121">
-        <v>120.4599990844727</v>
+        <v>125.7699966430664</v>
       </c>
       <c r="G121">
-        <v>2885200</v>
+        <v>5828700</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3180,22 +3180,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1575988200</v>
+        <v>1577111400</v>
       </c>
       <c r="C122">
-        <v>120.4499969482422</v>
+        <v>125.7399978637695</v>
       </c>
       <c r="D122">
-        <v>121.4700012207031</v>
+        <v>125.7399978637695</v>
       </c>
       <c r="E122">
-        <v>120.0299987792969</v>
+        <v>123.6999969482422</v>
       </c>
       <c r="F122">
-        <v>120.9000015258789</v>
+        <v>124.4899978637695</v>
       </c>
       <c r="G122">
-        <v>2518200</v>
+        <v>3031400</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3203,22 +3203,22 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1576074600</v>
+        <v>1577197800</v>
       </c>
       <c r="C123">
-        <v>120.879997253418</v>
+        <v>124.9499969482422</v>
       </c>
       <c r="D123">
-        <v>121.379997253418</v>
+        <v>125.3300018310547</v>
       </c>
       <c r="E123">
-        <v>120.0999984741211</v>
+        <v>124.379997253418</v>
       </c>
       <c r="F123">
-        <v>120.6399993896484</v>
+        <v>124.7399978637695</v>
       </c>
       <c r="G123">
-        <v>2015300</v>
+        <v>953500</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3226,22 +3226,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1576161000</v>
+        <v>1577370600</v>
       </c>
       <c r="C124">
-        <v>120.5999984741211</v>
+        <v>124.9800033569336</v>
       </c>
       <c r="D124">
-        <v>123.0699996948242</v>
+        <v>125.4400024414062</v>
       </c>
       <c r="E124">
-        <v>120.0500030517578</v>
+        <v>124.5299987792969</v>
       </c>
       <c r="F124">
-        <v>122.6399993896484</v>
+        <v>125.4100036621094</v>
       </c>
       <c r="G124">
-        <v>2933800</v>
+        <v>1486600</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3249,22 +3249,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1576247400</v>
+        <v>1577457000</v>
       </c>
       <c r="C125">
-        <v>122.4700012207031</v>
+        <v>125.8399963378906</v>
       </c>
       <c r="D125">
-        <v>124.9899978637695</v>
+        <v>125.9700012207031</v>
       </c>
       <c r="E125">
-        <v>122.0800018310547</v>
+        <v>125.1100006103516</v>
       </c>
       <c r="F125">
-        <v>124.7200012207031</v>
+        <v>125.1900024414062</v>
       </c>
       <c r="G125">
-        <v>3919000</v>
+        <v>1788600</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3272,22 +3272,22 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1576506600</v>
+        <v>1577716200</v>
       </c>
       <c r="C126">
-        <v>125.6500015258789</v>
+        <v>125.1999969482422</v>
       </c>
       <c r="D126">
-        <v>126.3300018310547</v>
+        <v>125.4599990844727</v>
       </c>
       <c r="E126">
-        <v>123.3399963378906</v>
+        <v>124.1800003051758</v>
       </c>
       <c r="F126">
-        <v>123.6800003051758</v>
+        <v>124.3000030517578</v>
       </c>
       <c r="G126">
-        <v>3416100</v>
+        <v>2306500</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3295,22 +3295,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1576593000</v>
+        <v>1577802600</v>
       </c>
       <c r="C127">
-        <v>123.9899978637695</v>
+        <v>124.2900009155273</v>
       </c>
       <c r="D127">
-        <v>125.4000015258789</v>
+        <v>124.5699996948242</v>
       </c>
       <c r="E127">
-        <v>123.25</v>
+        <v>123.7799987792969</v>
       </c>
       <c r="F127">
-        <v>124.9499969482422</v>
+        <v>124.4899978637695</v>
       </c>
       <c r="G127">
-        <v>4325200</v>
+        <v>2340400</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3318,22 +3318,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1576679400</v>
+        <v>1577975400</v>
       </c>
       <c r="C128">
-        <v>125.0299987792969</v>
+        <v>124.6600036621094</v>
       </c>
       <c r="D128">
-        <v>125.0699996948242</v>
+        <v>126.2699966430664</v>
       </c>
       <c r="E128">
-        <v>124.0800018310547</v>
+        <v>124.2300033569336</v>
       </c>
       <c r="F128">
-        <v>124.2600021362305</v>
+        <v>125.8499984741211</v>
       </c>
       <c r="G128">
-        <v>3154200</v>
+        <v>2708000</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3341,22 +3341,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1576765800</v>
+        <v>1578061800</v>
       </c>
       <c r="C129">
-        <v>124.1800003051758</v>
+        <v>124.3199996948242</v>
       </c>
       <c r="D129">
-        <v>124.9000015258789</v>
+        <v>125.0999984741211</v>
       </c>
       <c r="E129">
-        <v>123.879997253418</v>
+        <v>123.9400024414062</v>
       </c>
       <c r="F129">
-        <v>124.8300018310547</v>
+        <v>124.5999984741211</v>
       </c>
       <c r="G129">
-        <v>2543600</v>
+        <v>2090600</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3364,22 +3364,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1576852200</v>
+        <v>1578321000</v>
       </c>
       <c r="C130">
-        <v>125.8600006103516</v>
+        <v>123.370002746582</v>
       </c>
       <c r="D130">
-        <v>126.2799987792969</v>
+        <v>124.1600036621094</v>
       </c>
       <c r="E130">
-        <v>124.8300018310547</v>
+        <v>123.120002746582</v>
       </c>
       <c r="F130">
-        <v>125.7699966430664</v>
+        <v>124.0599975585938</v>
       </c>
       <c r="G130">
-        <v>5828700</v>
+        <v>2855200</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3387,22 +3387,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1577111400</v>
+        <v>1578407400</v>
       </c>
       <c r="C131">
-        <v>125.7399978637695</v>
+        <v>123.4700012207031</v>
       </c>
       <c r="D131">
-        <v>125.7399978637695</v>
+        <v>124.4000015258789</v>
       </c>
       <c r="E131">
-        <v>123.6999969482422</v>
+        <v>123.3600006103516</v>
       </c>
       <c r="F131">
-        <v>124.4899978637695</v>
+        <v>123.4100036621094</v>
       </c>
       <c r="G131">
-        <v>3031400</v>
+        <v>2042300</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3410,22 +3410,22 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1577197800</v>
+        <v>1578493800</v>
       </c>
       <c r="C132">
-        <v>124.9499969482422</v>
+        <v>124.0500030517578</v>
       </c>
       <c r="D132">
-        <v>125.3300018310547</v>
+        <v>126.3600006103516</v>
       </c>
       <c r="E132">
-        <v>124.379997253418</v>
+        <v>123.8000030517578</v>
       </c>
       <c r="F132">
-        <v>124.7399978637695</v>
+        <v>125.5400009155273</v>
       </c>
       <c r="G132">
-        <v>953500</v>
+        <v>3458200</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3433,22 +3433,22 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1577370600</v>
+        <v>1578580200</v>
       </c>
       <c r="C133">
-        <v>124.9800033569336</v>
+        <v>126.4899978637695</v>
       </c>
       <c r="D133">
-        <v>125.4400024414062</v>
+        <v>127.879997253418</v>
       </c>
       <c r="E133">
-        <v>124.5299987792969</v>
+        <v>126.3899993896484</v>
       </c>
       <c r="F133">
-        <v>125.4100036621094</v>
+        <v>127.8099975585938</v>
       </c>
       <c r="G133">
-        <v>1486600</v>
+        <v>2787100</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3456,22 +3456,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1577457000</v>
+        <v>1578666600</v>
       </c>
       <c r="C134">
-        <v>125.8399963378906</v>
+        <v>127.5800018310547</v>
       </c>
       <c r="D134">
-        <v>125.9700012207031</v>
+        <v>128.1699981689453</v>
       </c>
       <c r="E134">
-        <v>125.1100006103516</v>
+        <v>126.9199981689453</v>
       </c>
       <c r="F134">
-        <v>125.1900024414062</v>
+        <v>127.2799987792969</v>
       </c>
       <c r="G134">
-        <v>1788600</v>
+        <v>2789200</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3479,22 +3479,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1577716200</v>
+        <v>1578925800</v>
       </c>
       <c r="C135">
-        <v>125.1999969482422</v>
+        <v>127.8399963378906</v>
       </c>
       <c r="D135">
-        <v>125.4599990844727</v>
+        <v>128.9499969482422</v>
       </c>
       <c r="E135">
-        <v>124.1800003051758</v>
+        <v>127.629997253418</v>
       </c>
       <c r="F135">
-        <v>124.3000030517578</v>
+        <v>128.5399932861328</v>
       </c>
       <c r="G135">
-        <v>2306500</v>
+        <v>3285700</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3502,22 +3502,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1577802600</v>
+        <v>1579012200</v>
       </c>
       <c r="C136">
-        <v>124.2900009155273</v>
+        <v>128.6199951171875</v>
       </c>
       <c r="D136">
-        <v>124.5699996948242</v>
+        <v>130.0899963378906</v>
       </c>
       <c r="E136">
-        <v>123.7799987792969</v>
+        <v>128.3399963378906</v>
       </c>
       <c r="F136">
-        <v>124.4899978637695</v>
+        <v>128.8000030517578</v>
       </c>
       <c r="G136">
-        <v>2340400</v>
+        <v>3836000</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3525,22 +3525,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1577975400</v>
+        <v>1579098600</v>
       </c>
       <c r="C137">
-        <v>124.6600036621094</v>
+        <v>128.6900024414062</v>
       </c>
       <c r="D137">
-        <v>126.2699966430664</v>
+        <v>129.8399963378906</v>
       </c>
       <c r="E137">
-        <v>124.2300033569336</v>
+        <v>128.4499969482422</v>
       </c>
       <c r="F137">
-        <v>125.8499984741211</v>
+        <v>129.8200073242188</v>
       </c>
       <c r="G137">
-        <v>2708000</v>
+        <v>3187200</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3548,22 +3548,22 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1578061800</v>
+        <v>1579185000</v>
       </c>
       <c r="C138">
-        <v>124.3199996948242</v>
+        <v>130.5</v>
       </c>
       <c r="D138">
-        <v>125.0999984741211</v>
+        <v>130.9299926757812</v>
       </c>
       <c r="E138">
-        <v>123.9400024414062</v>
+        <v>129.7100067138672</v>
       </c>
       <c r="F138">
-        <v>124.5999984741211</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="G138">
-        <v>2090600</v>
+        <v>2424500</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3571,22 +3571,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1578321000</v>
+        <v>1579271400</v>
       </c>
       <c r="C139">
-        <v>123.370002746582</v>
+        <v>131.4499969482422</v>
       </c>
       <c r="D139">
-        <v>124.1600036621094</v>
+        <v>131.8600006103516</v>
       </c>
       <c r="E139">
-        <v>123.120002746582</v>
+        <v>130.7899932861328</v>
       </c>
       <c r="F139">
-        <v>124.0599975585938</v>
+        <v>131.5200042724609</v>
       </c>
       <c r="G139">
-        <v>2855200</v>
+        <v>3659400</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3594,22 +3594,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1578407400</v>
+        <v>1579617000</v>
       </c>
       <c r="C140">
-        <v>123.4700012207031</v>
+        <v>131.1100006103516</v>
       </c>
       <c r="D140">
-        <v>124.4000015258789</v>
+        <v>131.8200073242188</v>
       </c>
       <c r="E140">
-        <v>123.3600006103516</v>
+        <v>130.3899993896484</v>
       </c>
       <c r="F140">
-        <v>123.4100036621094</v>
+        <v>130.5299987792969</v>
       </c>
       <c r="G140">
-        <v>2042300</v>
+        <v>3102700</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3617,22 +3617,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1578493800</v>
+        <v>1579703400</v>
       </c>
       <c r="C141">
-        <v>124.0500030517578</v>
+        <v>130.9299926757812</v>
       </c>
       <c r="D141">
-        <v>126.3600006103516</v>
+        <v>132.2700042724609</v>
       </c>
       <c r="E141">
-        <v>123.8000030517578</v>
+        <v>130.9299926757812</v>
       </c>
       <c r="F141">
-        <v>125.5400009155273</v>
+        <v>131.4900054931641</v>
       </c>
       <c r="G141">
-        <v>3458200</v>
+        <v>2483800</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3640,22 +3640,22 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1578580200</v>
+        <v>1579789800</v>
       </c>
       <c r="C142">
-        <v>126.4899978637695</v>
+        <v>131.2599945068359</v>
       </c>
       <c r="D142">
-        <v>127.879997253418</v>
+        <v>131.5700073242188</v>
       </c>
       <c r="E142">
-        <v>126.3899993896484</v>
+        <v>130.1399993896484</v>
       </c>
       <c r="F142">
-        <v>127.8099975585938</v>
+        <v>131.3699951171875</v>
       </c>
       <c r="G142">
-        <v>2787100</v>
+        <v>3841000</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3663,22 +3663,22 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1578666600</v>
+        <v>1579876200</v>
       </c>
       <c r="C143">
-        <v>127.5800018310547</v>
+        <v>136.3600006103516</v>
       </c>
       <c r="D143">
-        <v>128.1699981689453</v>
+        <v>138.1300048828125</v>
       </c>
       <c r="E143">
-        <v>126.9199981689453</v>
+        <v>133.8500061035156</v>
       </c>
       <c r="F143">
-        <v>127.2799987792969</v>
+        <v>135.1100006103516</v>
       </c>
       <c r="G143">
-        <v>2789200</v>
+        <v>8612500</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3686,22 +3686,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1578925800</v>
+        <v>1580135400</v>
       </c>
       <c r="C144">
-        <v>127.8399963378906</v>
+        <v>131.1499938964844</v>
       </c>
       <c r="D144">
-        <v>128.9499969482422</v>
+        <v>131.9799957275391</v>
       </c>
       <c r="E144">
-        <v>127.629997253418</v>
+        <v>128.8699951171875</v>
       </c>
       <c r="F144">
-        <v>128.5399932861328</v>
+        <v>130.6399993896484</v>
       </c>
       <c r="G144">
-        <v>3285700</v>
+        <v>6432400</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3709,22 +3709,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1579012200</v>
+        <v>1580221800</v>
       </c>
       <c r="C145">
-        <v>128.6199951171875</v>
+        <v>132</v>
       </c>
       <c r="D145">
-        <v>130.0899963378906</v>
+        <v>133.8699951171875</v>
       </c>
       <c r="E145">
-        <v>128.3399963378906</v>
+        <v>131.1399993896484</v>
       </c>
       <c r="F145">
-        <v>128.8000030517578</v>
+        <v>132.4499969482422</v>
       </c>
       <c r="G145">
-        <v>3836000</v>
+        <v>3712700</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3732,22 +3732,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1579098600</v>
+        <v>1580308200</v>
       </c>
       <c r="C146">
-        <v>128.6900024414062</v>
+        <v>132.4799957275391</v>
       </c>
       <c r="D146">
-        <v>129.8399963378906</v>
+        <v>133.1300048828125</v>
       </c>
       <c r="E146">
-        <v>128.4499969482422</v>
+        <v>131.4400024414062</v>
       </c>
       <c r="F146">
-        <v>129.8200073242188</v>
+        <v>131.6799926757812</v>
       </c>
       <c r="G146">
-        <v>3187200</v>
+        <v>2518400</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3755,22 +3755,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1579185000</v>
+        <v>1580394600</v>
       </c>
       <c r="C147">
-        <v>130.5</v>
+        <v>130.75</v>
       </c>
       <c r="D147">
-        <v>130.9299926757812</v>
+        <v>133.3300018310547</v>
       </c>
       <c r="E147">
-        <v>129.7100067138672</v>
+        <v>130.4400024414062</v>
       </c>
       <c r="F147">
-        <v>130.5500030517578</v>
+        <v>133.2200012207031</v>
       </c>
       <c r="G147">
-        <v>2424500</v>
+        <v>2428500</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3778,22 +3778,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1579271400</v>
+        <v>1580481000</v>
       </c>
       <c r="C148">
-        <v>131.4499969482422</v>
+        <v>132.1699981689453</v>
       </c>
       <c r="D148">
-        <v>131.8600006103516</v>
+        <v>132.25</v>
       </c>
       <c r="E148">
-        <v>130.7899932861328</v>
+        <v>129.3800048828125</v>
       </c>
       <c r="F148">
-        <v>131.5200042724609</v>
+        <v>129.8699951171875</v>
       </c>
       <c r="G148">
-        <v>3659400</v>
+        <v>3522600</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3801,22 +3801,22 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1579617000</v>
+        <v>1580740200</v>
       </c>
       <c r="C149">
-        <v>131.1100006103516</v>
+        <v>130.5500030517578</v>
       </c>
       <c r="D149">
-        <v>131.8200073242188</v>
+        <v>132.2200012207031</v>
       </c>
       <c r="E149">
-        <v>130.3899993896484</v>
+        <v>130.4499969482422</v>
       </c>
       <c r="F149">
-        <v>130.5299987792969</v>
+        <v>131</v>
       </c>
       <c r="G149">
-        <v>3102700</v>
+        <v>2721900</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3824,22 +3824,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1579703400</v>
+        <v>1580826600</v>
       </c>
       <c r="C150">
-        <v>130.9299926757812</v>
+        <v>132.8800048828125</v>
       </c>
       <c r="D150">
-        <v>132.2700042724609</v>
+        <v>133.3399963378906</v>
       </c>
       <c r="E150">
-        <v>130.9299926757812</v>
+        <v>131.7200012207031</v>
       </c>
       <c r="F150">
-        <v>131.4900054931641</v>
+        <v>131.8500061035156</v>
       </c>
       <c r="G150">
-        <v>2483800</v>
+        <v>2547500</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3847,22 +3847,22 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1579789800</v>
+        <v>1580913000</v>
       </c>
       <c r="C151">
-        <v>131.2599945068359</v>
+        <v>133.4299926757812</v>
       </c>
       <c r="D151">
-        <v>131.5700073242188</v>
+        <v>133.8000030517578</v>
       </c>
       <c r="E151">
-        <v>130.1399993896484</v>
+        <v>131.2899932861328</v>
       </c>
       <c r="F151">
-        <v>131.3699951171875</v>
+        <v>133.6000061035156</v>
       </c>
       <c r="G151">
-        <v>3841000</v>
+        <v>4084500</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3870,22 +3870,22 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1579876200</v>
+        <v>1580999400</v>
       </c>
       <c r="C152">
-        <v>136.3600006103516</v>
+        <v>134.1600036621094</v>
       </c>
       <c r="D152">
-        <v>138.1300048828125</v>
+        <v>134.3500061035156</v>
       </c>
       <c r="E152">
-        <v>133.8500061035156</v>
+        <v>133.1100006103516</v>
       </c>
       <c r="F152">
-        <v>135.1100006103516</v>
+        <v>133.25</v>
       </c>
       <c r="G152">
-        <v>8612500</v>
+        <v>1708600</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3893,22 +3893,22 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1580135400</v>
+        <v>1581085800</v>
       </c>
       <c r="C153">
-        <v>131.1499938964844</v>
+        <v>132.5700073242188</v>
       </c>
       <c r="D153">
-        <v>131.9799957275391</v>
+        <v>132.75</v>
       </c>
       <c r="E153">
-        <v>128.8699951171875</v>
+        <v>131.3399963378906</v>
       </c>
       <c r="F153">
-        <v>130.6399993896484</v>
+        <v>131.8200073242188</v>
       </c>
       <c r="G153">
-        <v>6432400</v>
+        <v>2885600</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3916,22 +3916,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1580221800</v>
+        <v>1581345000</v>
       </c>
       <c r="C154">
-        <v>132</v>
+        <v>131.6100006103516</v>
       </c>
       <c r="D154">
-        <v>133.8699951171875</v>
+        <v>132.5</v>
       </c>
       <c r="E154">
-        <v>131.1399993896484</v>
+        <v>131.3500061035156</v>
       </c>
       <c r="F154">
-        <v>132.4499969482422</v>
+        <v>132.2400054931641</v>
       </c>
       <c r="G154">
-        <v>3712700</v>
+        <v>1816500</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3939,22 +3939,22 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1580308200</v>
+        <v>1581431400</v>
       </c>
       <c r="C155">
-        <v>132.4799957275391</v>
+        <v>133.0299987792969</v>
       </c>
       <c r="D155">
-        <v>133.1300048828125</v>
+        <v>133.6499938964844</v>
       </c>
       <c r="E155">
-        <v>131.4400024414062</v>
+        <v>132.3200073242188</v>
       </c>
       <c r="F155">
-        <v>131.6799926757812</v>
+        <v>132.6300048828125</v>
       </c>
       <c r="G155">
-        <v>2518400</v>
+        <v>1733300</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3962,22 +3962,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1580394600</v>
+        <v>1581517800</v>
       </c>
       <c r="C156">
-        <v>130.75</v>
+        <v>133.3899993896484</v>
       </c>
       <c r="D156">
-        <v>133.3300018310547</v>
+        <v>133.7200012207031</v>
       </c>
       <c r="E156">
-        <v>130.4400024414062</v>
+        <v>132.5299987792969</v>
       </c>
       <c r="F156">
-        <v>133.2200012207031</v>
+        <v>133.2400054931641</v>
       </c>
       <c r="G156">
-        <v>2428500</v>
+        <v>1715400</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3985,22 +3985,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1580481000</v>
+        <v>1581604200</v>
       </c>
       <c r="C157">
-        <v>132.1699981689453</v>
+        <v>133.1499938964844</v>
       </c>
       <c r="D157">
-        <v>132.25</v>
+        <v>134.6699981689453</v>
       </c>
       <c r="E157">
-        <v>129.3800048828125</v>
+        <v>133.0599975585938</v>
       </c>
       <c r="F157">
-        <v>129.8699951171875</v>
+        <v>134.4600067138672</v>
       </c>
       <c r="G157">
-        <v>3522600</v>
+        <v>3178300</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4008,22 +4008,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1580740200</v>
+        <v>1581690600</v>
       </c>
       <c r="C158">
-        <v>130.5500030517578</v>
+        <v>134.7100067138672</v>
       </c>
       <c r="D158">
-        <v>132.2200012207031</v>
+        <v>136.3699951171875</v>
       </c>
       <c r="E158">
-        <v>130.4499969482422</v>
+        <v>134.5299987792969</v>
       </c>
       <c r="F158">
-        <v>131</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="G158">
-        <v>2721900</v>
+        <v>2360300</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4031,22 +4031,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1580826600</v>
+        <v>1582036200</v>
       </c>
       <c r="C159">
-        <v>132.8800048828125</v>
+        <v>135.8699951171875</v>
       </c>
       <c r="D159">
-        <v>133.3399963378906</v>
+        <v>136.75</v>
       </c>
       <c r="E159">
-        <v>131.7200012207031</v>
+        <v>134.9400024414062</v>
       </c>
       <c r="F159">
-        <v>131.8500061035156</v>
+        <v>135.6000061035156</v>
       </c>
       <c r="G159">
-        <v>2547500</v>
+        <v>2428200</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4054,22 +4054,22 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1580913000</v>
+        <v>1582122600</v>
       </c>
       <c r="C160">
-        <v>133.4299926757812</v>
+        <v>136.3000030517578</v>
       </c>
       <c r="D160">
-        <v>133.8000030517578</v>
+        <v>137.4199981689453</v>
       </c>
       <c r="E160">
-        <v>131.2899932861328</v>
+        <v>136.1199951171875</v>
       </c>
       <c r="F160">
-        <v>133.6000061035156</v>
+        <v>136.9299926757812</v>
       </c>
       <c r="G160">
-        <v>4084500</v>
+        <v>1785000</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4077,22 +4077,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1580999400</v>
+        <v>1582209000</v>
       </c>
       <c r="C161">
-        <v>134.1600036621094</v>
+        <v>136.4100036621094</v>
       </c>
       <c r="D161">
-        <v>134.3500061035156</v>
+        <v>138.0399932861328</v>
       </c>
       <c r="E161">
-        <v>133.1100006103516</v>
+        <v>134.8999938964844</v>
       </c>
       <c r="F161">
-        <v>133.25</v>
+        <v>136.5800018310547</v>
       </c>
       <c r="G161">
-        <v>1708600</v>
+        <v>2541700</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4100,22 +4100,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1581085800</v>
+        <v>1582295400</v>
       </c>
       <c r="C162">
-        <v>132.5700073242188</v>
+        <v>136.1999969482422</v>
       </c>
       <c r="D162">
-        <v>132.75</v>
+        <v>136.2700042724609</v>
       </c>
       <c r="E162">
-        <v>131.3399963378906</v>
+        <v>133.8899993896484</v>
       </c>
       <c r="F162">
-        <v>131.8200073242188</v>
+        <v>134.8999938964844</v>
       </c>
       <c r="G162">
-        <v>2885600</v>
+        <v>3106100</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4123,22 +4123,22 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1581345000</v>
+        <v>1582554600</v>
       </c>
       <c r="C163">
-        <v>131.6100006103516</v>
+        <v>129.4299926757812</v>
       </c>
       <c r="D163">
-        <v>132.5</v>
+        <v>130.9600067138672</v>
       </c>
       <c r="E163">
-        <v>131.3500061035156</v>
+        <v>127.2300033569336</v>
       </c>
       <c r="F163">
-        <v>132.2400054931641</v>
+        <v>128.1900024414062</v>
       </c>
       <c r="G163">
-        <v>1816500</v>
+        <v>6329300</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4146,22 +4146,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1581431400</v>
+        <v>1582641000</v>
       </c>
       <c r="C164">
-        <v>133.0299987792969</v>
+        <v>127.7099990844727</v>
       </c>
       <c r="D164">
-        <v>133.6499938964844</v>
+        <v>127.9899978637695</v>
       </c>
       <c r="E164">
-        <v>132.3200073242188</v>
+        <v>119.9100036621094</v>
       </c>
       <c r="F164">
-        <v>132.6300048828125</v>
+        <v>120.9000015258789</v>
       </c>
       <c r="G164">
-        <v>1733300</v>
+        <v>7628100</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4169,22 +4169,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1581517800</v>
+        <v>1582727400</v>
       </c>
       <c r="C165">
-        <v>133.3899993896484</v>
+        <v>121.2699966430664</v>
       </c>
       <c r="D165">
-        <v>133.7200012207031</v>
+        <v>122.4300003051758</v>
       </c>
       <c r="E165">
-        <v>132.5299987792969</v>
+        <v>118.4700012207031</v>
       </c>
       <c r="F165">
-        <v>133.2400054931641</v>
+        <v>118.5</v>
       </c>
       <c r="G165">
-        <v>1715400</v>
+        <v>5268000</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4192,22 +4192,22 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1581604200</v>
+        <v>1582813800</v>
       </c>
       <c r="C166">
-        <v>133.1499938964844</v>
+        <v>115.9000015258789</v>
       </c>
       <c r="D166">
-        <v>134.6699981689453</v>
+        <v>117.4800033569336</v>
       </c>
       <c r="E166">
-        <v>133.0599975585938</v>
+        <v>112.7799987792969</v>
       </c>
       <c r="F166">
-        <v>134.4600067138672</v>
+        <v>112.8099975585938</v>
       </c>
       <c r="G166">
-        <v>3178300</v>
+        <v>8278300</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4215,22 +4215,22 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1581690600</v>
+        <v>1582900200</v>
       </c>
       <c r="C167">
-        <v>134.7100067138672</v>
+        <v>109.0500030517578</v>
       </c>
       <c r="D167">
-        <v>136.3699951171875</v>
+        <v>111.0299987792969</v>
       </c>
       <c r="E167">
-        <v>134.5299987792969</v>
+        <v>107</v>
       </c>
       <c r="F167">
-        <v>135.8699951171875</v>
+        <v>109.9300003051758</v>
       </c>
       <c r="G167">
-        <v>2360300</v>
+        <v>11363600</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4238,22 +4238,22 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1582036200</v>
+        <v>1583159400</v>
       </c>
       <c r="C168">
-        <v>135.8699951171875</v>
+        <v>111.1100006103516</v>
       </c>
       <c r="D168">
-        <v>136.75</v>
+        <v>113.9899978637695</v>
       </c>
       <c r="E168">
-        <v>134.9400024414062</v>
+        <v>108.5899963378906</v>
       </c>
       <c r="F168">
-        <v>135.6000061035156</v>
+        <v>113.870002746582</v>
       </c>
       <c r="G168">
-        <v>2428200</v>
+        <v>9851600</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4261,22 +4261,22 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1582122600</v>
+        <v>1583245800</v>
       </c>
       <c r="C169">
-        <v>136.3000030517578</v>
+        <v>115.0199966430664</v>
       </c>
       <c r="D169">
-        <v>137.4199981689453</v>
+        <v>116.4000015258789</v>
       </c>
       <c r="E169">
-        <v>136.1199951171875</v>
+        <v>107</v>
       </c>
       <c r="F169">
-        <v>136.9299926757812</v>
+        <v>108.0100021362305</v>
       </c>
       <c r="G169">
-        <v>1785000</v>
+        <v>9285000</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4284,22 +4284,22 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1582209000</v>
+        <v>1583332200</v>
       </c>
       <c r="C170">
-        <v>136.4100036621094</v>
+        <v>110.25</v>
       </c>
       <c r="D170">
-        <v>138.0399932861328</v>
+        <v>115.7900009155273</v>
       </c>
       <c r="E170">
-        <v>134.8999938964844</v>
+        <v>109.25</v>
       </c>
       <c r="F170">
-        <v>136.5800018310547</v>
+        <v>115.6999969482422</v>
       </c>
       <c r="G170">
-        <v>2541700</v>
+        <v>7470900</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4307,22 +4307,22 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1582295400</v>
+        <v>1583418600</v>
       </c>
       <c r="C171">
-        <v>136.1999969482422</v>
+        <v>111.620002746582</v>
       </c>
       <c r="D171">
-        <v>136.2700042724609</v>
+        <v>112.5899963378906</v>
       </c>
       <c r="E171">
-        <v>133.8899993896484</v>
+        <v>109.6999969482422</v>
       </c>
       <c r="F171">
-        <v>134.8999938964844</v>
+        <v>110.9400024414062</v>
       </c>
       <c r="G171">
-        <v>3106100</v>
+        <v>12060600</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4330,22 +4330,22 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1582554600</v>
+        <v>1583505000</v>
       </c>
       <c r="C172">
-        <v>129.4299926757812</v>
+        <v>105.7300033569336</v>
       </c>
       <c r="D172">
-        <v>130.9600067138672</v>
+        <v>108.7699966430664</v>
       </c>
       <c r="E172">
-        <v>127.2300033569336</v>
+        <v>103.7900009155273</v>
       </c>
       <c r="F172">
-        <v>128.1900024414062</v>
+        <v>108.2399978637695</v>
       </c>
       <c r="G172">
-        <v>6329300</v>
+        <v>9897700</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4353,22 +4353,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1582641000</v>
+        <v>1583760600</v>
       </c>
       <c r="C173">
-        <v>127.7099990844727</v>
+        <v>100.870002746582</v>
       </c>
       <c r="D173">
-        <v>127.9899978637695</v>
+        <v>101.4400024414062</v>
       </c>
       <c r="E173">
-        <v>119.9100036621094</v>
+        <v>96.94000244140625</v>
       </c>
       <c r="F173">
-        <v>120.9000015258789</v>
+        <v>98.29000091552734</v>
       </c>
       <c r="G173">
-        <v>7628100</v>
+        <v>12266300</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4376,22 +4376,22 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1582727400</v>
+        <v>1583847000</v>
       </c>
       <c r="C174">
-        <v>121.2699966430664</v>
+        <v>101.9300003051758</v>
       </c>
       <c r="D174">
-        <v>122.4300003051758</v>
+        <v>103.370002746582</v>
       </c>
       <c r="E174">
-        <v>118.4700012207031</v>
+        <v>97.44999694824219</v>
       </c>
       <c r="F174">
-        <v>118.5</v>
+        <v>103.3000030517578</v>
       </c>
       <c r="G174">
-        <v>5268000</v>
+        <v>9793200</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4399,22 +4399,22 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1582813800</v>
+        <v>1583933400</v>
       </c>
       <c r="C175">
-        <v>115.9000015258789</v>
+        <v>100.3000030517578</v>
       </c>
       <c r="D175">
-        <v>117.4800033569336</v>
+        <v>100.9599990844727</v>
       </c>
       <c r="E175">
-        <v>112.7799987792969</v>
+        <v>93.87000274658203</v>
       </c>
       <c r="F175">
-        <v>112.8099975585938</v>
+        <v>95.37999725341797</v>
       </c>
       <c r="G175">
-        <v>8278300</v>
+        <v>8822900</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4422,22 +4422,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1582900200</v>
+        <v>1584019800</v>
       </c>
       <c r="C176">
-        <v>109.0500030517578</v>
+        <v>87.66000366210938</v>
       </c>
       <c r="D176">
-        <v>111.0299987792969</v>
+        <v>89.61000061035156</v>
       </c>
       <c r="E176">
-        <v>107</v>
+        <v>81.80999755859375</v>
       </c>
       <c r="F176">
-        <v>109.9300003051758</v>
+        <v>83.52999877929688</v>
       </c>
       <c r="G176">
-        <v>11363600</v>
+        <v>12206600</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4445,22 +4445,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1583159400</v>
+        <v>1584106200</v>
       </c>
       <c r="C177">
-        <v>111.1100006103516</v>
+        <v>90.37999725341797</v>
       </c>
       <c r="D177">
-        <v>113.9899978637695</v>
+        <v>100.0800018310547</v>
       </c>
       <c r="E177">
-        <v>108.5899963378906</v>
+        <v>84.30000305175781</v>
       </c>
       <c r="F177">
-        <v>113.870002746582</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="G177">
-        <v>9851600</v>
+        <v>12680400</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4468,22 +4468,22 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1583245800</v>
+        <v>1584365400</v>
       </c>
       <c r="C178">
-        <v>115.0199966430664</v>
+        <v>82.44000244140625</v>
       </c>
       <c r="D178">
-        <v>116.4000015258789</v>
+        <v>93.18000030517578</v>
       </c>
       <c r="E178">
-        <v>107</v>
+        <v>80.37000274658203</v>
       </c>
       <c r="F178">
-        <v>108.0100021362305</v>
+        <v>85.87000274658203</v>
       </c>
       <c r="G178">
-        <v>9285000</v>
+        <v>15072400</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4491,22 +4491,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1583332200</v>
+        <v>1584451800</v>
       </c>
       <c r="C179">
-        <v>110.25</v>
+        <v>87.61000061035156</v>
       </c>
       <c r="D179">
-        <v>115.7900009155273</v>
+        <v>88.94000244140625</v>
       </c>
       <c r="E179">
-        <v>109.25</v>
+        <v>83.22000122070312</v>
       </c>
       <c r="F179">
-        <v>115.6999969482422</v>
+        <v>86.58000183105469</v>
       </c>
       <c r="G179">
-        <v>7470900</v>
+        <v>10512200</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4514,22 +4514,22 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1583418600</v>
+        <v>1584538200</v>
       </c>
       <c r="C180">
-        <v>111.620002746582</v>
+        <v>80.01999664306641</v>
       </c>
       <c r="D180">
-        <v>112.5899963378906</v>
+        <v>81.51999664306641</v>
       </c>
       <c r="E180">
-        <v>109.6999969482422</v>
+        <v>67</v>
       </c>
       <c r="F180">
-        <v>110.9400024414062</v>
+        <v>73.75</v>
       </c>
       <c r="G180">
-        <v>12060600</v>
+        <v>14359300</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4537,22 +4537,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1583505000</v>
+        <v>1584624600</v>
       </c>
       <c r="C181">
-        <v>105.7300033569336</v>
+        <v>72.54000091552734</v>
       </c>
       <c r="D181">
-        <v>108.7699966430664</v>
+        <v>77.88999938964844</v>
       </c>
       <c r="E181">
-        <v>103.7900009155273</v>
+        <v>69.79000091552734</v>
       </c>
       <c r="F181">
-        <v>108.2399978637695</v>
+        <v>77.06999969482422</v>
       </c>
       <c r="G181">
-        <v>9897700</v>
+        <v>12330400</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4560,22 +4560,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1583760600</v>
+        <v>1584711000</v>
       </c>
       <c r="C182">
-        <v>100.870002746582</v>
+        <v>78.98000335693359</v>
       </c>
       <c r="D182">
-        <v>101.4400024414062</v>
+        <v>82.44000244140625</v>
       </c>
       <c r="E182">
-        <v>96.94000244140625</v>
+        <v>72.55999755859375</v>
       </c>
       <c r="F182">
-        <v>98.29000091552734</v>
+        <v>74.12000274658203</v>
       </c>
       <c r="G182">
-        <v>12266300</v>
+        <v>12208600</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4583,22 +4583,22 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1583847000</v>
+        <v>1584970200</v>
       </c>
       <c r="C183">
-        <v>101.9300003051758</v>
+        <v>72.81999969482422</v>
       </c>
       <c r="D183">
-        <v>103.370002746582</v>
+        <v>75.41999816894531</v>
       </c>
       <c r="E183">
-        <v>97.44999694824219</v>
+        <v>68.12000274658203</v>
       </c>
       <c r="F183">
-        <v>103.3000030517578</v>
+        <v>68.95999908447266</v>
       </c>
       <c r="G183">
-        <v>9793200</v>
+        <v>8907600</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4606,22 +4606,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1583933400</v>
+        <v>1585056600</v>
       </c>
       <c r="C184">
-        <v>100.3000030517578</v>
+        <v>73.51000213623047</v>
       </c>
       <c r="D184">
-        <v>100.9599990844727</v>
+        <v>84.76999664306641</v>
       </c>
       <c r="E184">
-        <v>93.87000274658203</v>
+        <v>71.69999694824219</v>
       </c>
       <c r="F184">
-        <v>95.37999725341797</v>
+        <v>84.05000305175781</v>
       </c>
       <c r="G184">
-        <v>8822900</v>
+        <v>10593900</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4629,22 +4629,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1584019800</v>
+        <v>1585143000</v>
       </c>
       <c r="C185">
-        <v>87.66000366210938</v>
+        <v>87.61000061035156</v>
       </c>
       <c r="D185">
-        <v>89.61000061035156</v>
+        <v>96.45999908447266</v>
       </c>
       <c r="E185">
-        <v>81.80999755859375</v>
+        <v>85.31999969482422</v>
       </c>
       <c r="F185">
-        <v>83.52999877929688</v>
+        <v>90.16999816894531</v>
       </c>
       <c r="G185">
-        <v>12206600</v>
+        <v>11046500</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4652,22 +4652,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1584106200</v>
+        <v>1585229400</v>
       </c>
       <c r="C186">
-        <v>90.37999725341797</v>
+        <v>92.23999786376953</v>
       </c>
       <c r="D186">
-        <v>100.0800018310547</v>
+        <v>99.69000244140625</v>
       </c>
       <c r="E186">
-        <v>84.30000305175781</v>
+        <v>90.83999633789062</v>
       </c>
       <c r="F186">
-        <v>99.59999847412109</v>
+        <v>93.29000091552734</v>
       </c>
       <c r="G186">
-        <v>12680400</v>
+        <v>9459400</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4675,22 +4675,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1584365400</v>
+        <v>1585315800</v>
       </c>
       <c r="C187">
-        <v>82.44000244140625</v>
+        <v>87.94000244140625</v>
       </c>
       <c r="D187">
-        <v>93.18000030517578</v>
+        <v>91.97000122070312</v>
       </c>
       <c r="E187">
-        <v>80.37000274658203</v>
+        <v>85.81999969482422</v>
       </c>
       <c r="F187">
-        <v>85.87000274658203</v>
+        <v>88.73000335693359</v>
       </c>
       <c r="G187">
-        <v>15072400</v>
+        <v>6999800</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4698,22 +4698,22 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1584451800</v>
+        <v>1585575000</v>
       </c>
       <c r="C188">
-        <v>87.61000061035156</v>
+        <v>88.51000213623047</v>
       </c>
       <c r="D188">
-        <v>88.94000244140625</v>
+        <v>91.38999938964844</v>
       </c>
       <c r="E188">
-        <v>83.22000122070312</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="F188">
-        <v>86.58000183105469</v>
+        <v>90.26999664306641</v>
       </c>
       <c r="G188">
-        <v>10512200</v>
+        <v>5565000</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4721,22 +4721,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1584538200</v>
+        <v>1585661400</v>
       </c>
       <c r="C189">
-        <v>80.01999664306641</v>
+        <v>89.94000244140625</v>
       </c>
       <c r="D189">
-        <v>81.51999664306641</v>
+        <v>90.90000152587891</v>
       </c>
       <c r="E189">
-        <v>67</v>
+        <v>85.06999969482422</v>
       </c>
       <c r="F189">
-        <v>73.75</v>
+        <v>85.61000061035156</v>
       </c>
       <c r="G189">
-        <v>14359300</v>
+        <v>6075900</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4744,22 +4744,22 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1584624600</v>
+        <v>1585747800</v>
       </c>
       <c r="C190">
-        <v>72.54000091552734</v>
+        <v>80.65000152587891</v>
       </c>
       <c r="D190">
-        <v>77.88999938964844</v>
+        <v>81.30999755859375</v>
       </c>
       <c r="E190">
-        <v>69.79000091552734</v>
+        <v>77</v>
       </c>
       <c r="F190">
-        <v>77.06999969482422</v>
+        <v>77.83999633789062</v>
       </c>
       <c r="G190">
-        <v>12330400</v>
+        <v>8313400</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4767,22 +4767,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1584711000</v>
+        <v>1585834200</v>
       </c>
       <c r="C191">
-        <v>78.98000335693359</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="D191">
-        <v>82.44000244140625</v>
+        <v>79.12000274658203</v>
       </c>
       <c r="E191">
-        <v>72.55999755859375</v>
+        <v>75.83000183105469</v>
       </c>
       <c r="F191">
-        <v>74.12000274658203</v>
+        <v>76.66000366210938</v>
       </c>
       <c r="G191">
-        <v>12208600</v>
+        <v>8338100</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4790,22 +4790,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1584970200</v>
+        <v>1585920600</v>
       </c>
       <c r="C192">
-        <v>72.81999969482422</v>
+        <v>76</v>
       </c>
       <c r="D192">
-        <v>75.41999816894531</v>
+        <v>76.66000366210938</v>
       </c>
       <c r="E192">
-        <v>68.12000274658203</v>
+        <v>72.61000061035156</v>
       </c>
       <c r="F192">
-        <v>68.95999908447266</v>
+        <v>73.59999847412109</v>
       </c>
       <c r="G192">
-        <v>8907600</v>
+        <v>10023100</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4813,22 +4813,22 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1585056600</v>
+        <v>1586179800</v>
       </c>
       <c r="C193">
-        <v>73.51000213623047</v>
+        <v>80.22000122070312</v>
       </c>
       <c r="D193">
-        <v>84.76999664306641</v>
+        <v>84.25</v>
       </c>
       <c r="E193">
-        <v>71.69999694824219</v>
+        <v>78.73999786376953</v>
       </c>
       <c r="F193">
-        <v>84.05000305175781</v>
+        <v>83.87000274658203</v>
       </c>
       <c r="G193">
-        <v>10593900</v>
+        <v>11253000</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4836,22 +4836,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1585143000</v>
+        <v>1586266200</v>
       </c>
       <c r="C194">
-        <v>87.61000061035156</v>
+        <v>91.43000030517578</v>
       </c>
       <c r="D194">
-        <v>96.45999908447266</v>
+        <v>93.30000305175781</v>
       </c>
       <c r="E194">
-        <v>85.31999969482422</v>
+        <v>87.41999816894531</v>
       </c>
       <c r="F194">
-        <v>90.16999816894531</v>
+        <v>87.58000183105469</v>
       </c>
       <c r="G194">
-        <v>11046500</v>
+        <v>8693200</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4859,22 +4859,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1585229400</v>
+        <v>1586352600</v>
       </c>
       <c r="C195">
-        <v>92.23999786376953</v>
+        <v>89.20999908447266</v>
       </c>
       <c r="D195">
-        <v>99.69000244140625</v>
+        <v>93</v>
       </c>
       <c r="E195">
-        <v>90.83999633789062</v>
+        <v>88.12000274658203</v>
       </c>
       <c r="F195">
-        <v>93.29000091552734</v>
+        <v>92.08000183105469</v>
       </c>
       <c r="G195">
-        <v>9459400</v>
+        <v>6122800</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4882,22 +4882,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1585315800</v>
+        <v>1586439000</v>
       </c>
       <c r="C196">
-        <v>87.94000244140625</v>
+        <v>94.58999633789062</v>
       </c>
       <c r="D196">
-        <v>91.97000122070312</v>
+        <v>97.84999847412109</v>
       </c>
       <c r="E196">
-        <v>85.81999969482422</v>
+        <v>93.45999908447266</v>
       </c>
       <c r="F196">
-        <v>88.73000335693359</v>
+        <v>94.81999969482422</v>
       </c>
       <c r="G196">
-        <v>6999800</v>
+        <v>6905000</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4905,22 +4905,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1585575000</v>
+        <v>1586784600</v>
       </c>
       <c r="C197">
-        <v>88.51000213623047</v>
+        <v>93.29000091552734</v>
       </c>
       <c r="D197">
-        <v>91.38999938964844</v>
+        <v>93.41999816894531</v>
       </c>
       <c r="E197">
-        <v>85.26999664306641</v>
+        <v>87.94000244140625</v>
       </c>
       <c r="F197">
-        <v>90.26999664306641</v>
+        <v>90.33000183105469</v>
       </c>
       <c r="G197">
-        <v>5565000</v>
+        <v>5037700</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4928,22 +4928,22 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1585661400</v>
+        <v>1586871000</v>
       </c>
       <c r="C198">
-        <v>89.94000244140625</v>
+        <v>91.45999908447266</v>
       </c>
       <c r="D198">
-        <v>90.90000152587891</v>
+        <v>92.5</v>
       </c>
       <c r="E198">
-        <v>85.06999969482422</v>
+        <v>85.91000366210938</v>
       </c>
       <c r="F198">
-        <v>85.61000061035156</v>
+        <v>88.38999938964844</v>
       </c>
       <c r="G198">
-        <v>6075900</v>
+        <v>8703200</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4951,22 +4951,22 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1585747800</v>
+        <v>1586957400</v>
       </c>
       <c r="C199">
-        <v>80.65000152587891</v>
+        <v>83.43000030517578</v>
       </c>
       <c r="D199">
-        <v>81.30999755859375</v>
+        <v>85.40000152587891</v>
       </c>
       <c r="E199">
-        <v>77</v>
+        <v>80.68000030517578</v>
       </c>
       <c r="F199">
-        <v>77.83999633789062</v>
+        <v>83.79000091552734</v>
       </c>
       <c r="G199">
-        <v>8313400</v>
+        <v>10415600</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4974,22 +4974,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1585834200</v>
+        <v>1587043800</v>
       </c>
       <c r="C200">
-        <v>77.05999755859375</v>
+        <v>83.79000091552734</v>
       </c>
       <c r="D200">
-        <v>79.12000274658203</v>
+        <v>83.94000244140625</v>
       </c>
       <c r="E200">
-        <v>75.83000183105469</v>
+        <v>80.33000183105469</v>
       </c>
       <c r="F200">
-        <v>76.66000366210938</v>
+        <v>81.34999847412109</v>
       </c>
       <c r="G200">
-        <v>8338100</v>
+        <v>7526600</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4997,22 +4997,22 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1585920600</v>
+        <v>1587130200</v>
       </c>
       <c r="C201">
-        <v>76</v>
+        <v>85.31999969482422</v>
       </c>
       <c r="D201">
-        <v>76.66000366210938</v>
+        <v>87.38999938964844</v>
       </c>
       <c r="E201">
-        <v>72.61000061035156</v>
+        <v>84.27999877929688</v>
       </c>
       <c r="F201">
-        <v>73.59999847412109</v>
+        <v>87.38999938964844</v>
       </c>
       <c r="G201">
-        <v>10023100</v>
+        <v>8269000</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5020,22 +5020,22 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1586179800</v>
+        <v>1587389400</v>
       </c>
       <c r="C202">
-        <v>80.22000122070312</v>
+        <v>84.58999633789062</v>
       </c>
       <c r="D202">
-        <v>84.25</v>
+        <v>85.26999664306641</v>
       </c>
       <c r="E202">
-        <v>78.73999786376953</v>
+        <v>82.69000244140625</v>
       </c>
       <c r="F202">
-        <v>83.87000274658203</v>
+        <v>84.01000213623047</v>
       </c>
       <c r="G202">
-        <v>11253000</v>
+        <v>6140400</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5043,22 +5043,22 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1586266200</v>
+        <v>1587475800</v>
       </c>
       <c r="C203">
-        <v>91.43000030517578</v>
+        <v>80.73000335693359</v>
       </c>
       <c r="D203">
-        <v>93.30000305175781</v>
+        <v>82.45999908447266</v>
       </c>
       <c r="E203">
-        <v>87.41999816894531</v>
+        <v>79.47000122070312</v>
       </c>
       <c r="F203">
-        <v>87.58000183105469</v>
+        <v>81.51999664306641</v>
       </c>
       <c r="G203">
-        <v>8693200</v>
+        <v>7360300</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5066,22 +5066,22 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1586352600</v>
+        <v>1587562200</v>
       </c>
       <c r="C204">
-        <v>89.20999908447266</v>
+        <v>83.59999847412109</v>
       </c>
       <c r="D204">
-        <v>93</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="E204">
-        <v>88.12000274658203</v>
+        <v>81.97000122070312</v>
       </c>
       <c r="F204">
-        <v>92.08000183105469</v>
+        <v>82.54000091552734</v>
       </c>
       <c r="G204">
-        <v>6122800</v>
+        <v>5133500</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5089,22 +5089,22 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1586439000</v>
+        <v>1587648600</v>
       </c>
       <c r="C205">
-        <v>94.58999633789062</v>
+        <v>83.23999786376953</v>
       </c>
       <c r="D205">
-        <v>97.84999847412109</v>
+        <v>84.77999877929688</v>
       </c>
       <c r="E205">
-        <v>93.45999908447266</v>
+        <v>81.70999908447266</v>
       </c>
       <c r="F205">
-        <v>94.81999969482422</v>
+        <v>82.45999908447266</v>
       </c>
       <c r="G205">
-        <v>6905000</v>
+        <v>5807200</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5112,22 +5112,22 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1586784600</v>
+        <v>1587735000</v>
       </c>
       <c r="C206">
-        <v>93.29000091552734</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="D206">
-        <v>93.41999816894531</v>
+        <v>84.77999877929688</v>
       </c>
       <c r="E206">
-        <v>87.94000244140625</v>
+        <v>81.30999755859375</v>
       </c>
       <c r="F206">
-        <v>90.33000183105469</v>
+        <v>83.16999816894531</v>
       </c>
       <c r="G206">
-        <v>5037700</v>
+        <v>9126700</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5135,22 +5135,22 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1586871000</v>
+        <v>1587994200</v>
       </c>
       <c r="C207">
-        <v>91.45999908447266</v>
+        <v>83.47000122070312</v>
       </c>
       <c r="D207">
-        <v>92.5</v>
+        <v>85.15000152587891</v>
       </c>
       <c r="E207">
-        <v>85.91000366210938</v>
+        <v>82.33999633789062</v>
       </c>
       <c r="F207">
-        <v>88.38999938964844</v>
+        <v>85.05999755859375</v>
       </c>
       <c r="G207">
-        <v>8703200</v>
+        <v>7785000</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5158,22 +5158,22 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1586957400</v>
+        <v>1588080600</v>
       </c>
       <c r="C208">
-        <v>83.43000030517578</v>
+        <v>87.55999755859375</v>
       </c>
       <c r="D208">
-        <v>85.40000152587891</v>
+        <v>88.95999908447266</v>
       </c>
       <c r="E208">
-        <v>80.68000030517578</v>
+        <v>86.20999908447266</v>
       </c>
       <c r="F208">
-        <v>83.79000091552734</v>
+        <v>88.19000244140625</v>
       </c>
       <c r="G208">
-        <v>10415600</v>
+        <v>7165900</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5181,22 +5181,22 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1587043800</v>
+        <v>1588167000</v>
       </c>
       <c r="C209">
-        <v>83.79000091552734</v>
+        <v>91.75</v>
       </c>
       <c r="D209">
-        <v>83.94000244140625</v>
+        <v>96.38999938964844</v>
       </c>
       <c r="E209">
-        <v>80.33000183105469</v>
+        <v>90.88999938964844</v>
       </c>
       <c r="F209">
-        <v>81.34999847412109</v>
+        <v>96.12000274658203</v>
       </c>
       <c r="G209">
-        <v>7526600</v>
+        <v>9396500</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5204,22 +5204,22 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1587130200</v>
+        <v>1588253400</v>
       </c>
       <c r="C210">
-        <v>85.31999969482422</v>
+        <v>93.75</v>
       </c>
       <c r="D210">
-        <v>87.38999938964844</v>
+        <v>94.30999755859375</v>
       </c>
       <c r="E210">
-        <v>84.27999877929688</v>
+        <v>91.16999816894531</v>
       </c>
       <c r="F210">
-        <v>87.38999938964844</v>
+        <v>91.25</v>
       </c>
       <c r="G210">
-        <v>8269000</v>
+        <v>6547400</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5227,22 +5227,22 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1587389400</v>
+        <v>1588339800</v>
       </c>
       <c r="C211">
-        <v>84.58999633789062</v>
+        <v>88.09999847412109</v>
       </c>
       <c r="D211">
-        <v>85.26999664306641</v>
+        <v>89.06999969482422</v>
       </c>
       <c r="E211">
-        <v>82.69000244140625</v>
+        <v>87.16000366210938</v>
       </c>
       <c r="F211">
-        <v>84.01000213623047</v>
+        <v>88.31999969482422</v>
       </c>
       <c r="G211">
-        <v>6140400</v>
+        <v>4620200</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5250,22 +5250,22 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1587475800</v>
+        <v>1588599000</v>
       </c>
       <c r="C212">
-        <v>80.73000335693359</v>
+        <v>86.08999633789062</v>
       </c>
       <c r="D212">
-        <v>82.45999908447266</v>
+        <v>87.37000274658203</v>
       </c>
       <c r="E212">
-        <v>79.47000122070312</v>
+        <v>85.01999664306641</v>
       </c>
       <c r="F212">
-        <v>81.51999664306641</v>
+        <v>86.37999725341797</v>
       </c>
       <c r="G212">
-        <v>7360300</v>
+        <v>4875400</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5273,22 +5273,22 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1587562200</v>
+        <v>1588685400</v>
       </c>
       <c r="C213">
-        <v>83.59999847412109</v>
+        <v>88</v>
       </c>
       <c r="D213">
-        <v>83.66000366210938</v>
+        <v>88.73000335693359</v>
       </c>
       <c r="E213">
-        <v>81.97000122070312</v>
+        <v>86.36000061035156</v>
       </c>
       <c r="F213">
-        <v>82.54000091552734</v>
+        <v>86.73999786376953</v>
       </c>
       <c r="G213">
-        <v>5133500</v>
+        <v>4410300</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5296,22 +5296,22 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1587648600</v>
+        <v>1588771800</v>
       </c>
       <c r="C214">
-        <v>83.23999786376953</v>
+        <v>87.48999786376953</v>
       </c>
       <c r="D214">
-        <v>84.77999877929688</v>
+        <v>87.76000213623047</v>
       </c>
       <c r="E214">
-        <v>81.70999908447266</v>
+        <v>83.86000061035156</v>
       </c>
       <c r="F214">
-        <v>82.45999908447266</v>
+        <v>84</v>
       </c>
       <c r="G214">
-        <v>5807200</v>
+        <v>4723400</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5319,22 +5319,22 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1587735000</v>
+        <v>1588858200</v>
       </c>
       <c r="C215">
-        <v>84.12999725341797</v>
+        <v>85.30000305175781</v>
       </c>
       <c r="D215">
-        <v>84.77999877929688</v>
+        <v>87.37000274658203</v>
       </c>
       <c r="E215">
-        <v>81.30999755859375</v>
+        <v>84.93000030517578</v>
       </c>
       <c r="F215">
-        <v>83.16999816894531</v>
+        <v>86.73000335693359</v>
       </c>
       <c r="G215">
-        <v>9126700</v>
+        <v>4627600</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5342,22 +5342,22 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1587994200</v>
+        <v>1588944600</v>
       </c>
       <c r="C216">
-        <v>83.47000122070312</v>
+        <v>88.5</v>
       </c>
       <c r="D216">
-        <v>85.15000152587891</v>
+        <v>89.66000366210938</v>
       </c>
       <c r="E216">
-        <v>82.33999633789062</v>
+        <v>87.55000305175781</v>
       </c>
       <c r="F216">
-        <v>85.05999755859375</v>
+        <v>89.5</v>
       </c>
       <c r="G216">
-        <v>7785000</v>
+        <v>3917200</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5365,22 +5365,22 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1588080600</v>
+        <v>1589203800</v>
       </c>
       <c r="C217">
-        <v>87.55999755859375</v>
+        <v>87.5</v>
       </c>
       <c r="D217">
-        <v>88.95999908447266</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="E217">
-        <v>86.20999908447266</v>
+        <v>85.30000305175781</v>
       </c>
       <c r="F217">
-        <v>88.19000244140625</v>
+        <v>85.33000183105469</v>
       </c>
       <c r="G217">
-        <v>7165900</v>
+        <v>5917600</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5388,22 +5388,22 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1588167000</v>
+        <v>1589290200</v>
       </c>
       <c r="C218">
-        <v>91.75</v>
+        <v>86.09999847412109</v>
       </c>
       <c r="D218">
-        <v>96.38999938964844</v>
+        <v>87.26000213623047</v>
       </c>
       <c r="E218">
-        <v>90.88999938964844</v>
+        <v>83.09999847412109</v>
       </c>
       <c r="F218">
-        <v>96.12000274658203</v>
+        <v>83.13999938964844</v>
       </c>
       <c r="G218">
-        <v>9396500</v>
+        <v>5504900</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5411,22 +5411,22 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1588253400</v>
+        <v>1589376600</v>
       </c>
       <c r="C219">
-        <v>93.75</v>
+        <v>82</v>
       </c>
       <c r="D219">
-        <v>94.30999755859375</v>
+        <v>82.12999725341797</v>
       </c>
       <c r="E219">
-        <v>91.16999816894531</v>
+        <v>77.40000152587891</v>
       </c>
       <c r="F219">
-        <v>91.25</v>
+        <v>78.02999877929688</v>
       </c>
       <c r="G219">
-        <v>6547400</v>
+        <v>10681600</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5434,22 +5434,22 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1588339800</v>
+        <v>1589463000</v>
       </c>
       <c r="C220">
-        <v>88.09999847412109</v>
+        <v>76.91999816894531</v>
       </c>
       <c r="D220">
-        <v>89.06999969482422</v>
+        <v>83.90000152587891</v>
       </c>
       <c r="E220">
-        <v>87.16000366210938</v>
+        <v>76</v>
       </c>
       <c r="F220">
-        <v>88.31999969482422</v>
+        <v>83.80999755859375</v>
       </c>
       <c r="G220">
-        <v>4620200</v>
+        <v>10625100</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5457,22 +5457,22 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1588599000</v>
+        <v>1589549400</v>
       </c>
       <c r="C221">
-        <v>86.08999633789062</v>
+        <v>82.47000122070312</v>
       </c>
       <c r="D221">
-        <v>87.37000274658203</v>
+        <v>83.38999938964844</v>
       </c>
       <c r="E221">
-        <v>85.01999664306641</v>
+        <v>81.22000122070312</v>
       </c>
       <c r="F221">
-        <v>86.37999725341797</v>
+        <v>82.22000122070312</v>
       </c>
       <c r="G221">
-        <v>4875400</v>
+        <v>6618600</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5480,22 +5480,22 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1588685400</v>
+        <v>1589808600</v>
       </c>
       <c r="C222">
-        <v>88</v>
+        <v>86.72000122070312</v>
       </c>
       <c r="D222">
-        <v>88.73000335693359</v>
+        <v>89</v>
       </c>
       <c r="E222">
-        <v>86.36000061035156</v>
+        <v>85.91999816894531</v>
       </c>
       <c r="F222">
-        <v>86.73999786376953</v>
+        <v>88.41000366210938</v>
       </c>
       <c r="G222">
-        <v>4410300</v>
+        <v>7787400</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5503,22 +5503,22 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1588771800</v>
+        <v>1589895000</v>
       </c>
       <c r="C223">
-        <v>87.48999786376953</v>
+        <v>88.41999816894531</v>
       </c>
       <c r="D223">
-        <v>87.76000213623047</v>
+        <v>89.83999633789062</v>
       </c>
       <c r="E223">
-        <v>83.86000061035156</v>
+        <v>86.61000061035156</v>
       </c>
       <c r="F223">
-        <v>84</v>
+        <v>87.26000213623047</v>
       </c>
       <c r="G223">
-        <v>4723400</v>
+        <v>4920600</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5526,22 +5526,22 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1588858200</v>
+        <v>1589981400</v>
       </c>
       <c r="C224">
-        <v>85.30000305175781</v>
+        <v>89.18000030517578</v>
       </c>
       <c r="D224">
-        <v>87.37000274658203</v>
+        <v>91.33999633789062</v>
       </c>
       <c r="E224">
-        <v>84.93000030517578</v>
+        <v>88.76999664306641</v>
       </c>
       <c r="F224">
-        <v>86.73000335693359</v>
+        <v>90.73000335693359</v>
       </c>
       <c r="G224">
-        <v>4627600</v>
+        <v>5218500</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5549,22 +5549,22 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1588944600</v>
+        <v>1590067800</v>
       </c>
       <c r="C225">
-        <v>88.5</v>
+        <v>90.11000061035156</v>
       </c>
       <c r="D225">
-        <v>89.66000366210938</v>
+        <v>91.43000030517578</v>
       </c>
       <c r="E225">
-        <v>87.55000305175781</v>
+        <v>89.12000274658203</v>
       </c>
       <c r="F225">
-        <v>89.5</v>
+        <v>89.83000183105469</v>
       </c>
       <c r="G225">
-        <v>3917200</v>
+        <v>6241900</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5572,22 +5572,22 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1589203800</v>
+        <v>1590154200</v>
       </c>
       <c r="C226">
-        <v>87.5</v>
+        <v>89.70999908447266</v>
       </c>
       <c r="D226">
-        <v>87.65000152587891</v>
+        <v>89.94999694824219</v>
       </c>
       <c r="E226">
-        <v>85.30000305175781</v>
+        <v>88.20999908447266</v>
       </c>
       <c r="F226">
-        <v>85.33000183105469</v>
+        <v>89.33000183105469</v>
       </c>
       <c r="G226">
-        <v>5910100</v>
+        <v>3734500</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5595,22 +5595,22 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1589290200</v>
+        <v>1590499800</v>
       </c>
       <c r="C227">
-        <v>86.09999847412109</v>
+        <v>93.94000244140625</v>
       </c>
       <c r="D227">
-        <v>87.26000213623047</v>
+        <v>95.56999969482422</v>
       </c>
       <c r="E227">
-        <v>83.09999847412109</v>
+        <v>92.88999938964844</v>
       </c>
       <c r="F227">
-        <v>83.13999938964844</v>
+        <v>94.31999969482422</v>
       </c>
       <c r="G227">
-        <v>5504900</v>
+        <v>6559400</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5618,22 +5618,22 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1589376600</v>
+        <v>1590586200</v>
       </c>
       <c r="C228">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D228">
-        <v>82.12999725341797</v>
+        <v>101.6900024414062</v>
       </c>
       <c r="E228">
-        <v>77.40000152587891</v>
+        <v>96.80000305175781</v>
       </c>
       <c r="F228">
-        <v>78.02999877929688</v>
+        <v>101.2300033569336</v>
       </c>
       <c r="G228">
-        <v>10681600</v>
+        <v>11007700</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5641,22 +5641,22 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1589463000</v>
+        <v>1590672600</v>
       </c>
       <c r="C229">
-        <v>76.91999816894531</v>
+        <v>101.5400009155273</v>
       </c>
       <c r="D229">
-        <v>83.90000152587891</v>
+        <v>102.4599990844727</v>
       </c>
       <c r="E229">
-        <v>76</v>
+        <v>98.01000213623047</v>
       </c>
       <c r="F229">
-        <v>83.80999755859375</v>
+        <v>98.05999755859375</v>
       </c>
       <c r="G229">
-        <v>10625100</v>
+        <v>9268200</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5664,22 +5664,22 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1589549400</v>
+        <v>1590759000</v>
       </c>
       <c r="C230">
-        <v>82.47000122070312</v>
+        <v>95.5</v>
       </c>
       <c r="D230">
-        <v>83.38999938964844</v>
+        <v>97.11000061035156</v>
       </c>
       <c r="E230">
-        <v>81.22000122070312</v>
+        <v>94.66000366210938</v>
       </c>
       <c r="F230">
-        <v>82.22000122070312</v>
+        <v>95.06999969482422</v>
       </c>
       <c r="G230">
-        <v>6618600</v>
+        <v>7711900</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5687,22 +5687,22 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1589808600</v>
+        <v>1591018200</v>
       </c>
       <c r="C231">
-        <v>86.72000122070312</v>
+        <v>95.55999755859375</v>
       </c>
       <c r="D231">
-        <v>89</v>
+        <v>98.06999969482422</v>
       </c>
       <c r="E231">
-        <v>85.91999816894531</v>
+        <v>94.55999755859375</v>
       </c>
       <c r="F231">
-        <v>88.41000366210938</v>
+        <v>96.75</v>
       </c>
       <c r="G231">
-        <v>7787400</v>
+        <v>4269500</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5710,22 +5710,22 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1589895000</v>
+        <v>1591104600</v>
       </c>
       <c r="C232">
-        <v>88.41999816894531</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="D232">
-        <v>89.83999633789062</v>
+        <v>100.4899978637695</v>
       </c>
       <c r="E232">
-        <v>86.61000061035156</v>
+        <v>98.16999816894531</v>
       </c>
       <c r="F232">
-        <v>87.26000213623047</v>
+        <v>99.06999969482422</v>
       </c>
       <c r="G232">
-        <v>4920600</v>
+        <v>5433800</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5733,22 +5733,22 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1589981400</v>
+        <v>1591191000</v>
       </c>
       <c r="C233">
-        <v>89.18000030517578</v>
+        <v>102.7799987792969</v>
       </c>
       <c r="D233">
-        <v>91.33999633789062</v>
+        <v>105.870002746582</v>
       </c>
       <c r="E233">
-        <v>88.76999664306641</v>
+        <v>101.629997253418</v>
       </c>
       <c r="F233">
-        <v>90.73000335693359</v>
+        <v>105.4000015258789</v>
       </c>
       <c r="G233">
-        <v>5218500</v>
+        <v>7301000</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5756,22 +5756,22 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1590067800</v>
+        <v>1591277400</v>
       </c>
       <c r="C234">
-        <v>90.11000061035156</v>
+        <v>103.4700012207031</v>
       </c>
       <c r="D234">
-        <v>91.43000030517578</v>
+        <v>107.4300003051758</v>
       </c>
       <c r="E234">
-        <v>89.12000274658203</v>
+        <v>103.2300033569336</v>
       </c>
       <c r="F234">
-        <v>89.83000183105469</v>
+        <v>106.5400009155273</v>
       </c>
       <c r="G234">
-        <v>6241900</v>
+        <v>5841600</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5779,22 +5779,22 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1590154200</v>
+        <v>1591363800</v>
       </c>
       <c r="C235">
-        <v>89.70999908447266</v>
+        <v>114.1100006103516</v>
       </c>
       <c r="D235">
-        <v>89.94999694824219</v>
+        <v>115.9300003051758</v>
       </c>
       <c r="E235">
-        <v>88.20999908447266</v>
+        <v>108.0699996948242</v>
       </c>
       <c r="F235">
-        <v>89.33000183105469</v>
+        <v>109.7300033569336</v>
       </c>
       <c r="G235">
-        <v>3734500</v>
+        <v>10097600</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5802,22 +5802,22 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1590499800</v>
+        <v>1591623000</v>
       </c>
       <c r="C236">
-        <v>93.94000244140625</v>
+        <v>111.9100036621094</v>
       </c>
       <c r="D236">
-        <v>95.56999969482422</v>
+        <v>113.7099990844727</v>
       </c>
       <c r="E236">
-        <v>92.88999938964844</v>
+        <v>110.6399993896484</v>
       </c>
       <c r="F236">
-        <v>94.31999969482422</v>
+        <v>113.6699981689453</v>
       </c>
       <c r="G236">
-        <v>6559400</v>
+        <v>6795200</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5825,22 +5825,22 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1590586200</v>
+        <v>1591709400</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>110.0800018310547</v>
       </c>
       <c r="D237">
-        <v>101.6900024414062</v>
+        <v>111.8000030517578</v>
       </c>
       <c r="E237">
-        <v>96.80000305175781</v>
+        <v>108.6699981689453</v>
       </c>
       <c r="F237">
-        <v>101.2300033569336</v>
+        <v>110.4599990844727</v>
       </c>
       <c r="G237">
-        <v>11007700</v>
+        <v>5517400</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5848,22 +5848,22 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1590672600</v>
+        <v>1591795800</v>
       </c>
       <c r="C238">
-        <v>101.5400009155273</v>
+        <v>110</v>
       </c>
       <c r="D238">
-        <v>102.4599990844727</v>
+        <v>110.3300018310547</v>
       </c>
       <c r="E238">
-        <v>98.01000213623047</v>
+        <v>105.9599990844727</v>
       </c>
       <c r="F238">
-        <v>98.05999755859375</v>
+        <v>106.1600036621094</v>
       </c>
       <c r="G238">
-        <v>9268200</v>
+        <v>5747400</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5871,22 +5871,22 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1590759000</v>
+        <v>1591882200</v>
       </c>
       <c r="C239">
-        <v>95.5</v>
+        <v>100.870002746582</v>
       </c>
       <c r="D239">
-        <v>97.11000061035156</v>
+        <v>102.9899978637695</v>
       </c>
       <c r="E239">
-        <v>94.66000366210938</v>
+        <v>98.12999725341797</v>
       </c>
       <c r="F239">
-        <v>95.06999969482422</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="G239">
-        <v>7711900</v>
+        <v>8601200</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5894,22 +5894,22 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1591018200</v>
+        <v>1591968600</v>
       </c>
       <c r="C240">
-        <v>95.55999755859375</v>
+        <v>103.2099990844727</v>
       </c>
       <c r="D240">
-        <v>98.06999969482422</v>
+        <v>103.5</v>
       </c>
       <c r="E240">
-        <v>94.55999755859375</v>
+        <v>98.08000183105469</v>
       </c>
       <c r="F240">
-        <v>96.75</v>
+        <v>101.6800003051758</v>
       </c>
       <c r="G240">
-        <v>4269500</v>
+        <v>7249500</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5917,22 +5917,22 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1591104600</v>
+        <v>1592227800</v>
       </c>
       <c r="C241">
-        <v>98.59999847412109</v>
+        <v>100</v>
       </c>
       <c r="D241">
-        <v>100.4899978637695</v>
+        <v>104.7399978637695</v>
       </c>
       <c r="E241">
-        <v>98.16999816894531</v>
+        <v>97.62000274658203</v>
       </c>
       <c r="F241">
-        <v>99.06999969482422</v>
+        <v>103.9499969482422</v>
       </c>
       <c r="G241">
-        <v>5433800</v>
+        <v>6472400</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5940,22 +5940,22 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1591191000</v>
+        <v>1592314200</v>
       </c>
       <c r="C242">
-        <v>102.7799987792969</v>
+        <v>109.0199966430664</v>
       </c>
       <c r="D242">
-        <v>105.870002746582</v>
+        <v>109.0599975585938</v>
       </c>
       <c r="E242">
-        <v>101.629997253418</v>
+        <v>102.8600006103516</v>
       </c>
       <c r="F242">
-        <v>105.4000015258789</v>
+        <v>105.620002746582</v>
       </c>
       <c r="G242">
-        <v>7301000</v>
+        <v>6706000</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5963,22 +5963,22 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1591277400</v>
+        <v>1592400600</v>
       </c>
       <c r="C243">
-        <v>103.4700012207031</v>
+        <v>105.6699981689453</v>
       </c>
       <c r="D243">
-        <v>107.4300003051758</v>
+        <v>106.120002746582</v>
       </c>
       <c r="E243">
-        <v>103.2300033569336</v>
+        <v>103.8300018310547</v>
       </c>
       <c r="F243">
-        <v>106.5400009155273</v>
+        <v>103.9599990844727</v>
       </c>
       <c r="G243">
-        <v>5841600</v>
+        <v>4405700</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5986,22 +5986,22 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1591363800</v>
+        <v>1592487000</v>
       </c>
       <c r="C244">
-        <v>114.1100006103516</v>
+        <v>102.1399993896484</v>
       </c>
       <c r="D244">
-        <v>115.9300003051758</v>
+        <v>103.4899978637695</v>
       </c>
       <c r="E244">
-        <v>108.0699996948242</v>
+        <v>101.2699966430664</v>
       </c>
       <c r="F244">
-        <v>109.7300033569336</v>
+        <v>102.1600036621094</v>
       </c>
       <c r="G244">
-        <v>10097600</v>
+        <v>3645700</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6009,22 +6009,22 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1591623000</v>
+        <v>1592573400</v>
       </c>
       <c r="C245">
-        <v>111.9100036621094</v>
+        <v>104.2300033569336</v>
       </c>
       <c r="D245">
-        <v>113.7099990844727</v>
+        <v>104.2300033569336</v>
       </c>
       <c r="E245">
-        <v>110.6399993896484</v>
+        <v>99.31999969482422</v>
       </c>
       <c r="F245">
-        <v>113.6699981689453</v>
+        <v>100.9400024414062</v>
       </c>
       <c r="G245">
-        <v>6795200</v>
+        <v>7589500</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6032,22 +6032,22 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1591709400</v>
+        <v>1592832600</v>
       </c>
       <c r="C246">
-        <v>110.0800018310547</v>
+        <v>98</v>
       </c>
       <c r="D246">
-        <v>111.8000030517578</v>
+        <v>100.5</v>
       </c>
       <c r="E246">
-        <v>108.6699981689453</v>
+        <v>97.94999694824219</v>
       </c>
       <c r="F246">
-        <v>110.4599990844727</v>
+        <v>99.44000244140625</v>
       </c>
       <c r="G246">
-        <v>5517400</v>
+        <v>4799900</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6055,22 +6055,22 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1591795800</v>
+        <v>1592919000</v>
       </c>
       <c r="C247">
-        <v>110</v>
+        <v>100.9400024414062</v>
       </c>
       <c r="D247">
-        <v>110.3300018310547</v>
+        <v>101.6500015258789</v>
       </c>
       <c r="E247">
-        <v>105.9599990844727</v>
+        <v>99.25</v>
       </c>
       <c r="F247">
-        <v>106.1600036621094</v>
+        <v>99.41999816894531</v>
       </c>
       <c r="G247">
-        <v>5747400</v>
+        <v>4364800</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6078,22 +6078,22 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1591882200</v>
+        <v>1593005400</v>
       </c>
       <c r="C248">
-        <v>100.870002746582</v>
+        <v>97.65000152587891</v>
       </c>
       <c r="D248">
-        <v>102.9899978637695</v>
+        <v>98.26999664306641</v>
       </c>
       <c r="E248">
-        <v>98.12999725341797</v>
+        <v>95</v>
       </c>
       <c r="F248">
-        <v>98.59999847412109</v>
+        <v>95.48000335693359</v>
       </c>
       <c r="G248">
-        <v>8601200</v>
+        <v>5958300</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6101,22 +6101,22 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1591968600</v>
+        <v>1593091800</v>
       </c>
       <c r="C249">
-        <v>103.2099990844727</v>
+        <v>94.61000061035156</v>
       </c>
       <c r="D249">
-        <v>103.5</v>
+        <v>98.12000274658203</v>
       </c>
       <c r="E249">
-        <v>98.08000183105469</v>
+        <v>93.76000213623047</v>
       </c>
       <c r="F249">
-        <v>101.6800003051758</v>
+        <v>97.84999847412109</v>
       </c>
       <c r="G249">
-        <v>7249500</v>
+        <v>5195400</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6124,22 +6124,22 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1592227800</v>
+        <v>1593178200</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>95.93000030517578</v>
       </c>
       <c r="D250">
-        <v>104.7399978637695</v>
+        <v>96.30000305175781</v>
       </c>
       <c r="E250">
-        <v>97.62000274658203</v>
+        <v>92.44999694824219</v>
       </c>
       <c r="F250">
-        <v>103.9499969482422</v>
+        <v>93.41999816894531</v>
       </c>
       <c r="G250">
-        <v>6472400</v>
+        <v>10489400</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6147,22 +6147,22 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1592314200</v>
+        <v>1593437400</v>
       </c>
       <c r="C251">
-        <v>109.0199966430664</v>
+        <v>94.44000244140625</v>
       </c>
       <c r="D251">
-        <v>109.0599975585938</v>
+        <v>95.41000366210938</v>
       </c>
       <c r="E251">
-        <v>102.8600006103516</v>
+        <v>93.33999633789062</v>
       </c>
       <c r="F251">
-        <v>105.620002746582</v>
+        <v>94.51999664306641</v>
       </c>
       <c r="G251">
-        <v>6706000</v>
+        <v>4962400</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6170,22 +6170,22 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1592400600</v>
+        <v>1593523800</v>
       </c>
       <c r="C252">
-        <v>105.6699981689453</v>
+        <v>94.16000366210938</v>
       </c>
       <c r="D252">
-        <v>106.120002746582</v>
+        <v>95.59999847412109</v>
       </c>
       <c r="E252">
-        <v>103.8300018310547</v>
+        <v>93.56999969482422</v>
       </c>
       <c r="F252">
-        <v>103.9599990844727</v>
+        <v>95.19999694824219</v>
       </c>
       <c r="G252">
-        <v>4405700</v>
+        <v>4367100</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6193,22 +6193,22 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1592487000</v>
+        <v>1593610200</v>
       </c>
       <c r="C253">
-        <v>102.1399993896484</v>
+        <v>95.25</v>
       </c>
       <c r="D253">
-        <v>103.4899978637695</v>
+        <v>96.95999908447266</v>
       </c>
       <c r="E253">
-        <v>101.2699966430664</v>
+        <v>93.63999938964844</v>
       </c>
       <c r="F253">
-        <v>102.1600036621094</v>
+        <v>94.05000305175781</v>
       </c>
       <c r="G253">
-        <v>3645700</v>
+        <v>3301000</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6216,22 +6216,22 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1592573400</v>
+        <v>1593696600</v>
       </c>
       <c r="C254">
-        <v>104.2300033569336</v>
+        <v>96.76999664306641</v>
       </c>
       <c r="D254">
-        <v>104.2300033569336</v>
+        <v>97.29000091552734</v>
       </c>
       <c r="E254">
-        <v>99.31999969482422</v>
+        <v>93.84999847412109</v>
       </c>
       <c r="F254">
-        <v>100.9400024414062</v>
+        <v>94.33000183105469</v>
       </c>
       <c r="G254">
-        <v>7586200</v>
+        <v>4239700</v>
       </c>
     </row>
   </sheetData>
